--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>709372.6109901173</v>
+        <v>704867.2004211968</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30052932.10990575</v>
+        <v>30052932.10990572</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7358758.424792559</v>
+        <v>7358758.424792558</v>
       </c>
     </row>
     <row r="9">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>248.7488394185534</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.36782720556181</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U11" t="n">
         <v>255.6135341540542</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>281.4608860043822</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.90452502067237</v>
+        <v>60.90452502067238</v>
       </c>
       <c r="T12" t="n">
         <v>136.2065070493723</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>131.1414922659842</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.778005649686236</v>
+        <v>6.778005649686243</v>
       </c>
       <c r="S13" t="n">
-        <v>153.01156706812</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.124837410167</v>
@@ -1590,7 +1590,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>103.6991527334739</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H14" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V14" t="n">
-        <v>341.260361441717</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>226.6222371279877</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.06120455966767</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1779,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7094577587503</v>
+        <v>93.80326212874057</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I16" t="n">
-        <v>72.15825564197092</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.778005649686236</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3343344374282</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U17" t="n">
         <v>255.6135341540542</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>205.8853873638626</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>351.3706740530955</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2004,16 +2004,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>71.04398786629882</v>
+        <v>14.35496608483948</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.778005649686243</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S19" t="n">
         <v>153.0115670681201</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>369.7671306140369</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>111.5702281777661</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.36782720556181</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T20" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>255.6135341540542</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.778005649686243</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S22" t="n">
-        <v>153.0115670681201</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.124837410167</v>
+        <v>228.6415003787432</v>
       </c>
       <c r="U22" t="n">
         <v>277.3343344374282</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>178.6017438668356</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>369.7671306140373</v>
+        <v>64.4036150798855</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.36782720556181</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,16 +2478,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>69.12781625873343</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.7094577587503</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.778005649686243</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S25" t="n">
-        <v>153.0115670681201</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.124837410167</v>
+        <v>235.075199103178</v>
       </c>
       <c r="U25" t="n">
         <v>277.3343344374282</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>79.9803947339885</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.36782720556181</v>
+        <v>46.87942951195885</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>15.19163211476323</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.778005649686243</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S28" t="n">
         <v>153.0115670681201</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>92.80961852899456</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>150.7419032057682</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3228448427254</v>
+        <v>345.0265576523288</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2958,16 +2958,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>107.8076698855803</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.778005649686243</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S31" t="n">
         <v>153.0115670681201</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U31" t="n">
         <v>277.3343344374282</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>9.48978778712584</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>139.4398759646911</v>
       </c>
       <c r="C32" t="n">
-        <v>291.0475435006949</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.36782720556181</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I34" t="n">
-        <v>17.21748472901657</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.778005649686243</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S34" t="n">
         <v>153.0115670681201</v>
@@ -3246,16 +3246,16 @@
         <v>277.3343344374282</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>49.57536357726781</v>
       </c>
     </row>
     <row r="35">
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>398.3228448427254</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U35" t="n">
-        <v>203.044634365085</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>84.77256116407891</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3432,19 +3432,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>56.05621304010914</v>
+        <v>97.16455584539939</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I37" t="n">
-        <v>72.15825564197092</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S37" t="n">
-        <v>153.0115670681201</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.124837410167</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>378.6235917560393</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>65.34892712573773</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.36782720556181</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T38" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.6135341540542</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>74.72484895324453</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.778005649686243</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S40" t="n">
         <v>153.0115670681201</v>
       </c>
       <c r="T40" t="n">
-        <v>191.2806626035535</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>348.5985857323119</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>58.3678272055618</v>
       </c>
       <c r="T41" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>121.6761512040875</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3903,10 +3903,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,7 +3915,7 @@
         <v>163.7094577587503</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>72.15825564197092</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>277.3343344374282</v>
       </c>
       <c r="V43" t="n">
-        <v>9.003780904188732</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>216.0171383820121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3982,19 +3982,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>325.714341600254</v>
       </c>
       <c r="E44" t="n">
-        <v>16.05535920225866</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.3678272055618</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.080265299677</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4152,10 +4152,10 @@
         <v>163.7094577587503</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.15825564197092</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>6.778005649686236</v>
       </c>
       <c r="S46" t="n">
-        <v>153.0115670681201</v>
+        <v>57.80616343213344</v>
       </c>
       <c r="T46" t="n">
         <v>237.124837410167</v>
       </c>
       <c r="U46" t="n">
-        <v>179.5906325401291</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>696.0037621725335</v>
+        <v>894.4209120897535</v>
       </c>
       <c r="C11" t="n">
-        <v>696.0037621725335</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="D11" t="n">
-        <v>696.0037621725335</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="E11" t="n">
-        <v>444.7423082143987</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="F11" t="n">
-        <v>444.7423082143987</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="G11" t="n">
-        <v>42.39600029245378</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="H11" t="n">
-        <v>42.39600029245378</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="I11" t="n">
-        <v>83.4904134142339</v>
+        <v>83.49041341423344</v>
       </c>
       <c r="J11" t="n">
-        <v>220.1314621299489</v>
+        <v>220.1314621299484</v>
       </c>
       <c r="K11" t="n">
-        <v>433.165982831942</v>
+        <v>433.1659828319414</v>
       </c>
       <c r="L11" t="n">
-        <v>703.4506798655947</v>
+        <v>703.4506798655941</v>
       </c>
       <c r="M11" t="n">
-        <v>1009.340767185891</v>
+        <v>1009.34076718589</v>
       </c>
       <c r="N11" t="n">
-        <v>1320.93021977883</v>
+        <v>1320.930219778829</v>
       </c>
       <c r="O11" t="n">
-        <v>1612.988324273003</v>
+        <v>1612.988324273002</v>
       </c>
       <c r="P11" t="n">
-        <v>1856.646746816144</v>
+        <v>1856.646746816143</v>
       </c>
       <c r="Q11" t="n">
-        <v>2031.796003420094</v>
+        <v>2031.796003420093</v>
       </c>
       <c r="R11" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="S11" t="n">
-        <v>2119.800014622689</v>
+        <v>2060.842613404949</v>
       </c>
       <c r="T11" t="n">
-        <v>2119.800014622689</v>
+        <v>1848.640325223457</v>
       </c>
       <c r="U11" t="n">
-        <v>1861.60452557819</v>
+        <v>1590.444836178958</v>
       </c>
       <c r="V11" t="n">
-        <v>1504.115110704439</v>
+        <v>1590.444836178958</v>
       </c>
       <c r="W11" t="n">
-        <v>1107.723761004786</v>
+        <v>1306.140910922006</v>
       </c>
       <c r="X11" t="n">
-        <v>696.0037621725335</v>
+        <v>894.4209120897535</v>
       </c>
       <c r="Y11" t="n">
-        <v>696.0037621725335</v>
+        <v>894.4209120897535</v>
       </c>
     </row>
     <row r="12">
@@ -5111,25 +5111,25 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G12" t="n">
-        <v>85.47467570705001</v>
+        <v>85.47467570704998</v>
       </c>
       <c r="H12" t="n">
-        <v>42.39600029245378</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="I12" t="n">
-        <v>62.36450125466527</v>
+        <v>62.36450125466524</v>
       </c>
       <c r="J12" t="n">
-        <v>140.6890736543379</v>
+        <v>415.7924924818268</v>
       </c>
       <c r="K12" t="n">
-        <v>287.2584022575217</v>
+        <v>562.3618210850105</v>
       </c>
       <c r="L12" t="n">
-        <v>492.9767445740241</v>
+        <v>766.969784108298</v>
       </c>
       <c r="M12" t="n">
-        <v>734.8900777660527</v>
+        <v>1008.883117300327</v>
       </c>
       <c r="N12" t="n">
         <v>1259.540581385168</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.85438515991</v>
+        <v>884.1397699957035</v>
       </c>
       <c r="C13" t="n">
-        <v>917.8818220388257</v>
+        <v>884.1397699957035</v>
       </c>
       <c r="D13" t="n">
-        <v>754.5650491655964</v>
+        <v>720.8229971224742</v>
       </c>
       <c r="E13" t="n">
-        <v>588.3568433184499</v>
+        <v>588.3568433184498</v>
       </c>
       <c r="F13" t="n">
         <v>416.4950690930103</v>
@@ -5196,22 +5196,22 @@
         <v>115.2831272035355</v>
       </c>
       <c r="I13" t="n">
-        <v>42.39600029245378</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="J13" t="n">
-        <v>83.90537476982988</v>
+        <v>161.8270914180507</v>
       </c>
       <c r="K13" t="n">
-        <v>164.9364244520256</v>
+        <v>490.1407502142685</v>
       </c>
       <c r="L13" t="n">
-        <v>405.4453443428345</v>
+        <v>598.6922879201129</v>
       </c>
       <c r="M13" t="n">
-        <v>930.09584796195</v>
+        <v>1123.342791539228</v>
       </c>
       <c r="N13" t="n">
-        <v>1043.620532038271</v>
+        <v>1236.867475615549</v>
       </c>
       <c r="O13" t="n">
         <v>1522.880399639414</v>
@@ -5220,31 +5220,31 @@
         <v>1919.439056802506</v>
       </c>
       <c r="Q13" t="n">
-        <v>2119.800014622689</v>
+        <v>2119.800014622688</v>
       </c>
       <c r="R13" t="n">
-        <v>2112.953544269471</v>
+        <v>2112.95354426947</v>
       </c>
       <c r="S13" t="n">
-        <v>1958.396405816824</v>
+        <v>2112.95354426947</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.876368028777</v>
+        <v>1873.433506481422</v>
       </c>
       <c r="U13" t="n">
-        <v>1718.876368028777</v>
+        <v>1873.433506481422</v>
       </c>
       <c r="V13" t="n">
-        <v>1437.164900636805</v>
+        <v>1591.722039089451</v>
       </c>
       <c r="W13" t="n">
-        <v>1332.418281714105</v>
+        <v>1316.869635261964</v>
       </c>
       <c r="X13" t="n">
-        <v>1089.85438515991</v>
+        <v>1074.305738707769</v>
       </c>
       <c r="Y13" t="n">
-        <v>1089.85438515991</v>
+        <v>1074.305738707769</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>745.8330217641202</v>
+        <v>869.8664900249985</v>
       </c>
       <c r="C14" t="n">
-        <v>745.8330217641202</v>
+        <v>869.8664900249985</v>
       </c>
       <c r="D14" t="n">
-        <v>745.8330217641202</v>
+        <v>869.8664900249985</v>
       </c>
       <c r="E14" t="n">
-        <v>319.8560819119778</v>
+        <v>869.8664900249985</v>
       </c>
       <c r="F14" t="n">
-        <v>319.8560819119778</v>
+        <v>444.7423082143987</v>
       </c>
       <c r="G14" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H14" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I14" t="n">
         <v>83.49041341423379</v>
@@ -5290,7 +5290,7 @@
         <v>1009.34076718589</v>
       </c>
       <c r="N14" t="n">
-        <v>1320.93021977883</v>
+        <v>1320.930219778829</v>
       </c>
       <c r="O14" t="n">
         <v>1612.988324273003</v>
@@ -5308,22 +5308,22 @@
         <v>2119.800014622689</v>
       </c>
       <c r="T14" t="n">
-        <v>1907.597726441197</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="U14" t="n">
-        <v>1907.597726441197</v>
+        <v>1861.60452557819</v>
       </c>
       <c r="V14" t="n">
-        <v>1562.890290641483</v>
+        <v>1504.115110704439</v>
       </c>
       <c r="W14" t="n">
-        <v>1562.890290641483</v>
+        <v>1275.203760070108</v>
       </c>
       <c r="X14" t="n">
-        <v>1151.17029180923</v>
+        <v>1275.203760070108</v>
       </c>
       <c r="Y14" t="n">
-        <v>745.8330217641202</v>
+        <v>869.8664900249985</v>
       </c>
     </row>
     <row r="15">
@@ -5348,34 +5348,34 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G15" t="n">
-        <v>85.47467570705</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H15" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I15" t="n">
-        <v>62.36450125466525</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J15" t="n">
-        <v>140.6890736543379</v>
+        <v>310.3369921969212</v>
       </c>
       <c r="K15" t="n">
-        <v>287.2584022575217</v>
+        <v>456.9063208001049</v>
       </c>
       <c r="L15" t="n">
-        <v>491.8663652808091</v>
+        <v>661.5142838233924</v>
       </c>
       <c r="M15" t="n">
-        <v>733.7796984728377</v>
+        <v>903.427617015421</v>
       </c>
       <c r="N15" t="n">
-        <v>984.4371625576794</v>
+        <v>1154.085081100263</v>
       </c>
       <c r="O15" t="n">
-        <v>1210.129055565044</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P15" t="n">
-        <v>1388.125073787684</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q15" t="n">
         <v>1668.646747295068</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.0329687945532</v>
+        <v>946.3549394306363</v>
       </c>
       <c r="C16" t="n">
-        <v>782.0329687945532</v>
+        <v>774.3823763095522</v>
       </c>
       <c r="D16" t="n">
-        <v>618.7161959213239</v>
+        <v>611.0656034363229</v>
       </c>
       <c r="E16" t="n">
-        <v>452.5079900741774</v>
+        <v>444.8573975891765</v>
       </c>
       <c r="F16" t="n">
-        <v>280.6462158487379</v>
+        <v>272.9956233637369</v>
       </c>
       <c r="G16" t="n">
-        <v>115.2831272035355</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="H16" t="n">
-        <v>115.2831272035355</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I16" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J16" t="n">
-        <v>161.8270914180507</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K16" t="n">
-        <v>242.8581411002464</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L16" t="n">
-        <v>405.4453443428341</v>
+        <v>471.5421234521609</v>
       </c>
       <c r="M16" t="n">
-        <v>930.0958479619495</v>
+        <v>996.1926270712764</v>
       </c>
       <c r="N16" t="n">
-        <v>1043.620532038271</v>
+        <v>1507.750233989478</v>
       </c>
       <c r="O16" t="n">
-        <v>1522.880399639414</v>
+        <v>1987.010101590621</v>
       </c>
       <c r="P16" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q16" t="n">
         <v>2119.800014622689</v>
       </c>
       <c r="R16" t="n">
-        <v>2112.95354426947</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.95354426947</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="T16" t="n">
-        <v>2112.95354426947</v>
+        <v>1880.279976834642</v>
       </c>
       <c r="U16" t="n">
-        <v>1832.817852918532</v>
+        <v>1880.279976834642</v>
       </c>
       <c r="V16" t="n">
-        <v>1551.106385526561</v>
+        <v>1880.279976834642</v>
       </c>
       <c r="W16" t="n">
-        <v>1276.253981699074</v>
+        <v>1605.427573007155</v>
       </c>
       <c r="X16" t="n">
-        <v>1033.69008514488</v>
+        <v>1362.86367645296</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.3473168346216</v>
+        <v>1136.520908142702</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>890.8128029180533</v>
+        <v>469.2967302791537</v>
       </c>
       <c r="C17" t="n">
-        <v>890.8128029180533</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="D17" t="n">
-        <v>467.5201821030536</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="E17" t="n">
-        <v>467.5201821030536</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="F17" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="G17" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H17" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I17" t="n">
-        <v>83.49041341423379</v>
+        <v>83.4904134142339</v>
       </c>
       <c r="J17" t="n">
-        <v>220.1314621299487</v>
+        <v>220.1314621299484</v>
       </c>
       <c r="K17" t="n">
-        <v>433.1659828319416</v>
+        <v>433.1659828319414</v>
       </c>
       <c r="L17" t="n">
-        <v>703.4506798655942</v>
+        <v>703.4506798655941</v>
       </c>
       <c r="M17" t="n">
         <v>1009.34076718589</v>
       </c>
       <c r="N17" t="n">
-        <v>1320.930219778829</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O17" t="n">
-        <v>1612.988324273002</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P17" t="n">
-        <v>1856.646746816143</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q17" t="n">
-        <v>2031.796003420093</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R17" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S17" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="T17" t="n">
-        <v>2119.800014622688</v>
+        <v>1907.597726441197</v>
       </c>
       <c r="U17" t="n">
-        <v>1861.604525578189</v>
+        <v>1649.402237396698</v>
       </c>
       <c r="V17" t="n">
-        <v>1504.115110704438</v>
+        <v>1649.402237396698</v>
       </c>
       <c r="W17" t="n">
-        <v>1296.150072963163</v>
+        <v>1649.402237396698</v>
       </c>
       <c r="X17" t="n">
-        <v>1296.150072963163</v>
+        <v>1294.482364615793</v>
       </c>
       <c r="Y17" t="n">
-        <v>890.8128029180533</v>
+        <v>889.1450945706838</v>
       </c>
     </row>
     <row r="18">
@@ -5585,13 +5585,13 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G18" t="n">
-        <v>85.47467570704998</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H18" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I18" t="n">
-        <v>85.82180709907708</v>
+        <v>62.36450125466526</v>
       </c>
       <c r="J18" t="n">
         <v>415.7924924818268</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>449.4469401921194</v>
+        <v>223.1041718818623</v>
       </c>
       <c r="C19" t="n">
-        <v>277.4743770710354</v>
+        <v>223.1041718818623</v>
       </c>
       <c r="D19" t="n">
-        <v>114.1576041978061</v>
+        <v>223.1041718818623</v>
       </c>
       <c r="E19" t="n">
-        <v>114.1576041978061</v>
+        <v>56.89596603471588</v>
       </c>
       <c r="F19" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="G19" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H19" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I19" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J19" t="n">
-        <v>83.90537476982985</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K19" t="n">
-        <v>412.2190335660476</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L19" t="n">
-        <v>897.1594648630571</v>
+        <v>471.5421234521609</v>
       </c>
       <c r="M19" t="n">
-        <v>1421.809968482172</v>
+        <v>996.1926270712764</v>
       </c>
       <c r="N19" t="n">
-        <v>1535.334652558494</v>
+        <v>1507.750233989478</v>
       </c>
       <c r="O19" t="n">
-        <v>1674.253897017313</v>
+        <v>1987.010101590621</v>
       </c>
       <c r="P19" t="n">
-        <v>2070.812554180405</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q19" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R19" t="n">
-        <v>2112.95354426947</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="S19" t="n">
-        <v>1958.396405816823</v>
+        <v>1958.396405816824</v>
       </c>
       <c r="T19" t="n">
-        <v>1718.876368028776</v>
+        <v>1718.876368028777</v>
       </c>
       <c r="U19" t="n">
-        <v>1438.740676677838</v>
+        <v>1438.740676677839</v>
       </c>
       <c r="V19" t="n">
-        <v>1157.029209285867</v>
+        <v>1157.029209285868</v>
       </c>
       <c r="W19" t="n">
-        <v>882.1768054583799</v>
+        <v>882.1768054583808</v>
       </c>
       <c r="X19" t="n">
-        <v>639.612908904185</v>
+        <v>639.6129089041859</v>
       </c>
       <c r="Y19" t="n">
-        <v>639.612908904185</v>
+        <v>413.270140593928</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.8981524278446</v>
+        <v>581.0701403241579</v>
       </c>
       <c r="C20" t="n">
-        <v>415.8981524278446</v>
+        <v>581.0701403241579</v>
       </c>
       <c r="D20" t="n">
-        <v>415.8981524278446</v>
+        <v>581.0701403241579</v>
       </c>
       <c r="E20" t="n">
-        <v>415.8981524278446</v>
+        <v>155.0932004720155</v>
       </c>
       <c r="F20" t="n">
-        <v>42.39600029245376</v>
+        <v>155.0932004720155</v>
       </c>
       <c r="G20" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H20" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I20" t="n">
-        <v>83.49041341423373</v>
+        <v>83.4904134142339</v>
       </c>
       <c r="J20" t="n">
-        <v>220.1314621299486</v>
+        <v>220.1314621299491</v>
       </c>
       <c r="K20" t="n">
-        <v>433.1659828319409</v>
+        <v>433.1659828319421</v>
       </c>
       <c r="L20" t="n">
-        <v>703.4506798655937</v>
+        <v>703.4506798655948</v>
       </c>
       <c r="M20" t="n">
-        <v>1009.34076718589</v>
+        <v>1009.340767185891</v>
       </c>
       <c r="N20" t="n">
-        <v>1320.930219778829</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O20" t="n">
-        <v>1612.988324273002</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P20" t="n">
-        <v>1856.646746816143</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q20" t="n">
-        <v>2031.796003420093</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R20" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S20" t="n">
-        <v>2060.842613404949</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T20" t="n">
-        <v>1848.640325223457</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="U20" t="n">
-        <v>1590.444836178958</v>
+        <v>1802.647124360451</v>
       </c>
       <c r="V20" t="n">
-        <v>1232.955421305207</v>
+        <v>1802.647124360451</v>
       </c>
       <c r="W20" t="n">
-        <v>1232.955421305207</v>
+        <v>1406.255774660798</v>
       </c>
       <c r="X20" t="n">
-        <v>821.2354224729543</v>
+        <v>1406.255774660798</v>
       </c>
       <c r="Y20" t="n">
-        <v>415.8981524278446</v>
+        <v>1000.918504615688</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G21" t="n">
-        <v>85.47467570704998</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H21" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I21" t="n">
-        <v>62.36450125466523</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J21" t="n">
-        <v>140.6890736543378</v>
+        <v>310.3369921969212</v>
       </c>
       <c r="K21" t="n">
-        <v>287.2584022575215</v>
+        <v>456.9063208001049</v>
       </c>
       <c r="L21" t="n">
-        <v>491.866365280809</v>
+        <v>661.5142838233924</v>
       </c>
       <c r="M21" t="n">
-        <v>733.7796984728376</v>
+        <v>903.427617015421</v>
       </c>
       <c r="N21" t="n">
-        <v>1258.430202091953</v>
+        <v>1154.085081100263</v>
       </c>
       <c r="O21" t="n">
-        <v>1484.122095099317</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P21" t="n">
-        <v>1663.228492615173</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.102247579974</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R21" t="n">
         <v>1815.547718957572</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>543.8935421339135</v>
+        <v>386.2303376389773</v>
       </c>
       <c r="C22" t="n">
-        <v>371.9209790128295</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="D22" t="n">
-        <v>208.6042061396002</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="E22" t="n">
-        <v>42.39600029245376</v>
+        <v>214.2577745178934</v>
       </c>
       <c r="F22" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="G22" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H22" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I22" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J22" t="n">
-        <v>161.8270914180507</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K22" t="n">
-        <v>242.8581411002463</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L22" t="n">
-        <v>727.7985723972558</v>
+        <v>471.5421234521609</v>
       </c>
       <c r="M22" t="n">
-        <v>842.7804198492022</v>
+        <v>996.1926270712764</v>
       </c>
       <c r="N22" t="n">
-        <v>1354.338026767404</v>
+        <v>1507.750233989478</v>
       </c>
       <c r="O22" t="n">
-        <v>1522.880399639413</v>
+        <v>1987.010101590621</v>
       </c>
       <c r="P22" t="n">
-        <v>1919.439056802505</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q22" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R22" t="n">
-        <v>2112.953544269469</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="S22" t="n">
-        <v>1958.396405816823</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="T22" t="n">
-        <v>1718.876368028775</v>
+        <v>1882.002533785892</v>
       </c>
       <c r="U22" t="n">
-        <v>1438.740676677838</v>
+        <v>1601.866842434954</v>
       </c>
       <c r="V22" t="n">
-        <v>1157.029209285867</v>
+        <v>1320.155375042983</v>
       </c>
       <c r="W22" t="n">
-        <v>976.623407400174</v>
+        <v>1045.302971215496</v>
       </c>
       <c r="X22" t="n">
-        <v>734.059510845979</v>
+        <v>802.7390746613009</v>
       </c>
       <c r="Y22" t="n">
-        <v>734.059510845979</v>
+        <v>576.396306351043</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.898152427845</v>
+        <v>534.3508869255027</v>
       </c>
       <c r="C23" t="n">
-        <v>415.898152427845</v>
+        <v>107.4501569388028</v>
       </c>
       <c r="D23" t="n">
-        <v>415.898152427845</v>
+        <v>107.4501569388028</v>
       </c>
       <c r="E23" t="n">
-        <v>415.898152427845</v>
+        <v>107.4501569388028</v>
       </c>
       <c r="F23" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="G23" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H23" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I23" t="n">
-        <v>83.49041341423344</v>
+        <v>83.49041341423379</v>
       </c>
       <c r="J23" t="n">
-        <v>220.1314621299484</v>
+        <v>220.1314621299487</v>
       </c>
       <c r="K23" t="n">
-        <v>433.1659828319414</v>
+        <v>433.1659828319416</v>
       </c>
       <c r="L23" t="n">
-        <v>703.4506798655941</v>
+        <v>703.4506798655942</v>
       </c>
       <c r="M23" t="n">
-        <v>1009.34076718589</v>
+        <v>1009.340767185891</v>
       </c>
       <c r="N23" t="n">
-        <v>1320.930219778829</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O23" t="n">
-        <v>1612.988324273002</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P23" t="n">
-        <v>1856.646746816143</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q23" t="n">
-        <v>2031.796003420093</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R23" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S23" t="n">
-        <v>2060.842613404949</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="T23" t="n">
-        <v>1848.640325223457</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="U23" t="n">
-        <v>1590.444836178958</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="V23" t="n">
-        <v>1232.955421305207</v>
+        <v>1762.310599748939</v>
       </c>
       <c r="W23" t="n">
-        <v>1232.955421305207</v>
+        <v>1365.919250049285</v>
       </c>
       <c r="X23" t="n">
-        <v>821.2354224729547</v>
+        <v>954.1992512170327</v>
       </c>
       <c r="Y23" t="n">
-        <v>415.898152427845</v>
+        <v>954.1992512170327</v>
       </c>
     </row>
     <row r="24">
@@ -6059,13 +6059,13 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G24" t="n">
-        <v>85.47467570704998</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H24" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I24" t="n">
-        <v>62.36450125466524</v>
+        <v>62.36450125466526</v>
       </c>
       <c r="J24" t="n">
         <v>415.7924924818268</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>449.4469401921194</v>
+        <v>379.7316520587401</v>
       </c>
       <c r="C25" t="n">
-        <v>449.4469401921194</v>
+        <v>207.7590889376561</v>
       </c>
       <c r="D25" t="n">
-        <v>379.6208631630957</v>
+        <v>207.7590889376561</v>
       </c>
       <c r="E25" t="n">
-        <v>379.6208631630957</v>
+        <v>207.7590889376561</v>
       </c>
       <c r="F25" t="n">
         <v>207.7590889376561</v>
       </c>
       <c r="G25" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H25" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I25" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J25" t="n">
-        <v>161.8270914180507</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K25" t="n">
-        <v>242.8581411002464</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L25" t="n">
-        <v>417.0810776681224</v>
+        <v>471.5421234521609</v>
       </c>
       <c r="M25" t="n">
-        <v>532.0629251200688</v>
+        <v>996.1926270712764</v>
       </c>
       <c r="N25" t="n">
-        <v>1043.62053203827</v>
+        <v>1507.750233989478</v>
       </c>
       <c r="O25" t="n">
-        <v>1522.880399639414</v>
+        <v>1987.010101590621</v>
       </c>
       <c r="P25" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q25" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R25" t="n">
-        <v>2112.95354426947</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="S25" t="n">
-        <v>1958.396405816823</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="T25" t="n">
-        <v>1718.876368028776</v>
+        <v>1875.503848205654</v>
       </c>
       <c r="U25" t="n">
-        <v>1438.740676677838</v>
+        <v>1595.368156854717</v>
       </c>
       <c r="V25" t="n">
-        <v>1157.029209285867</v>
+        <v>1313.656689462746</v>
       </c>
       <c r="W25" t="n">
-        <v>882.1768054583799</v>
+        <v>1038.804285635259</v>
       </c>
       <c r="X25" t="n">
-        <v>639.612908904185</v>
+        <v>796.2403890810638</v>
       </c>
       <c r="Y25" t="n">
-        <v>639.612908904185</v>
+        <v>569.8976207708058</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>823.9369802360568</v>
+        <v>1318.566290946296</v>
       </c>
       <c r="C26" t="n">
-        <v>823.9369802360568</v>
+        <v>891.665560959596</v>
       </c>
       <c r="D26" t="n">
-        <v>400.6443594210571</v>
+        <v>468.3729401445962</v>
       </c>
       <c r="E26" t="n">
-        <v>400.6443594210571</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="F26" t="n">
-        <v>400.6443594210571</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="G26" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245376</v>
       </c>
       <c r="H26" t="n">
         <v>42.39600029245376</v>
       </c>
       <c r="I26" t="n">
-        <v>83.49041341423344</v>
+        <v>83.49041341423379</v>
       </c>
       <c r="J26" t="n">
-        <v>220.1314621299484</v>
+        <v>220.1314621299487</v>
       </c>
       <c r="K26" t="n">
-        <v>433.1659828319414</v>
+        <v>433.1659828319416</v>
       </c>
       <c r="L26" t="n">
-        <v>703.4506798655941</v>
+        <v>703.4506798655942</v>
       </c>
       <c r="M26" t="n">
         <v>1009.34076718589</v>
@@ -6253,25 +6253,25 @@
         <v>2119.800014622688</v>
       </c>
       <c r="S26" t="n">
-        <v>2060.842613404949</v>
+        <v>2072.447055519699</v>
       </c>
       <c r="T26" t="n">
-        <v>2060.842613404949</v>
+        <v>2072.447055519699</v>
       </c>
       <c r="U26" t="n">
-        <v>2060.842613404949</v>
+        <v>2072.447055519699</v>
       </c>
       <c r="V26" t="n">
-        <v>2060.842613404949</v>
+        <v>1714.957640645949</v>
       </c>
       <c r="W26" t="n">
-        <v>2060.842613404949</v>
+        <v>1318.566290946296</v>
       </c>
       <c r="X26" t="n">
-        <v>1649.122614572696</v>
+        <v>1318.566290946296</v>
       </c>
       <c r="Y26" t="n">
-        <v>1243.785344527587</v>
+        <v>1318.566290946296</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>42.39600029245376</v>
       </c>
       <c r="I27" t="n">
-        <v>62.36450125466524</v>
+        <v>85.82180709907709</v>
       </c>
       <c r="J27" t="n">
-        <v>140.6890736543378</v>
+        <v>310.3369921969212</v>
       </c>
       <c r="K27" t="n">
-        <v>287.2584022575215</v>
+        <v>456.9063208001049</v>
       </c>
       <c r="L27" t="n">
-        <v>491.866365280809</v>
+        <v>661.5142838233924</v>
       </c>
       <c r="M27" t="n">
-        <v>733.7796984728376</v>
+        <v>903.427617015421</v>
       </c>
       <c r="N27" t="n">
-        <v>984.4371625576792</v>
+        <v>1154.085081100263</v>
       </c>
       <c r="O27" t="n">
-        <v>1210.129055565044</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P27" t="n">
         <v>1557.772992330267</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>371.9209790128295</v>
+        <v>223.1041718818614</v>
       </c>
       <c r="C28" t="n">
-        <v>371.9209790128295</v>
+        <v>223.1041718818614</v>
       </c>
       <c r="D28" t="n">
-        <v>208.6042061396002</v>
+        <v>223.1041718818614</v>
       </c>
       <c r="E28" t="n">
-        <v>42.39600029245376</v>
+        <v>223.1041718818614</v>
       </c>
       <c r="F28" t="n">
-        <v>42.39600029245376</v>
+        <v>223.1041718818614</v>
       </c>
       <c r="G28" t="n">
-        <v>42.39600029245376</v>
+        <v>57.74108323665905</v>
       </c>
       <c r="H28" t="n">
         <v>42.39600029245376</v>
@@ -6384,25 +6384,25 @@
         <v>42.39600029245376</v>
       </c>
       <c r="J28" t="n">
-        <v>161.8270914180507</v>
+        <v>83.90537476982985</v>
       </c>
       <c r="K28" t="n">
-        <v>242.8581411002464</v>
+        <v>164.9364244520255</v>
       </c>
       <c r="L28" t="n">
-        <v>351.4096788060909</v>
+        <v>273.48796215787</v>
       </c>
       <c r="M28" t="n">
-        <v>876.0601824252062</v>
+        <v>683.436422497968</v>
       </c>
       <c r="N28" t="n">
-        <v>1387.617789343408</v>
+        <v>1194.994029416169</v>
       </c>
       <c r="O28" t="n">
-        <v>1522.880399639414</v>
+        <v>1674.253897017313</v>
       </c>
       <c r="P28" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180405</v>
       </c>
       <c r="Q28" t="n">
         <v>2119.800014622688</v>
@@ -6426,10 +6426,10 @@
         <v>882.1768054583799</v>
       </c>
       <c r="X28" t="n">
-        <v>788.4297160351531</v>
+        <v>639.612908904185</v>
       </c>
       <c r="Y28" t="n">
-        <v>562.0869477248951</v>
+        <v>413.2701405939271</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1297.619978053241</v>
+        <v>1243.785344527588</v>
       </c>
       <c r="C29" t="n">
-        <v>870.7192480665411</v>
+        <v>816.8846145408879</v>
       </c>
       <c r="D29" t="n">
-        <v>870.7192480665411</v>
+        <v>816.8846145408879</v>
       </c>
       <c r="E29" t="n">
-        <v>444.7423082143987</v>
+        <v>390.9076746887455</v>
       </c>
       <c r="F29" t="n">
-        <v>444.7423082143987</v>
+        <v>390.9076746887455</v>
       </c>
       <c r="G29" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H29" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I29" t="n">
-        <v>83.49041341423376</v>
+        <v>83.49041341423379</v>
       </c>
       <c r="J29" t="n">
-        <v>220.1314621299486</v>
+        <v>220.1314621299487</v>
       </c>
       <c r="K29" t="n">
-        <v>433.1659828319415</v>
+        <v>433.1659828319416</v>
       </c>
       <c r="L29" t="n">
-        <v>703.4506798655941</v>
+        <v>703.4506798655942</v>
       </c>
       <c r="M29" t="n">
         <v>1009.34076718589</v>
@@ -6478,37 +6478,37 @@
         <v>1320.930219778829</v>
       </c>
       <c r="O29" t="n">
-        <v>1612.988324273002</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P29" t="n">
-        <v>1856.646746816143</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q29" t="n">
-        <v>2031.796003420093</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R29" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S29" t="n">
-        <v>2119.800014622688</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T29" t="n">
-        <v>2119.800014622688</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="U29" t="n">
-        <v>1861.604525578189</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="V29" t="n">
-        <v>1861.604525578189</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="W29" t="n">
-        <v>1861.604525578189</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="X29" t="n">
-        <v>1449.884526745936</v>
+        <v>1649.122614572697</v>
       </c>
       <c r="Y29" t="n">
-        <v>1449.884526745936</v>
+        <v>1243.785344527588</v>
       </c>
     </row>
     <row r="30">
@@ -6533,34 +6533,34 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G30" t="n">
-        <v>85.47467570704998</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H30" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I30" t="n">
-        <v>62.36450125466524</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J30" t="n">
-        <v>140.6890736543378</v>
+        <v>164.1463794987498</v>
       </c>
       <c r="K30" t="n">
-        <v>287.2584022575215</v>
+        <v>310.7157081019335</v>
       </c>
       <c r="L30" t="n">
-        <v>491.866365280809</v>
+        <v>515.3236711252209</v>
       </c>
       <c r="M30" t="n">
-        <v>733.7796984728376</v>
+        <v>757.2370043172496</v>
       </c>
       <c r="N30" t="n">
-        <v>984.4371625576792</v>
+        <v>1007.894468402091</v>
       </c>
       <c r="O30" t="n">
-        <v>1210.129055565044</v>
+        <v>1233.586361409456</v>
       </c>
       <c r="P30" t="n">
-        <v>1557.772992330267</v>
+        <v>1411.582379632096</v>
       </c>
       <c r="Q30" t="n">
         <v>1668.646747295068</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>652.7901783819744</v>
+        <v>685.3959637564791</v>
       </c>
       <c r="C31" t="n">
-        <v>480.8176152608904</v>
+        <v>513.4234006353951</v>
       </c>
       <c r="D31" t="n">
-        <v>317.5008423876611</v>
+        <v>350.1066277621658</v>
       </c>
       <c r="E31" t="n">
-        <v>151.2926365405147</v>
+        <v>350.1066277621658</v>
       </c>
       <c r="F31" t="n">
-        <v>42.39600029245376</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="G31" t="n">
-        <v>42.39600029245376</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="H31" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I31" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J31" t="n">
-        <v>161.8270914180507</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K31" t="n">
-        <v>490.1407502142685</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L31" t="n">
-        <v>783.147668646037</v>
+        <v>471.5421234521609</v>
       </c>
       <c r="M31" t="n">
-        <v>1307.798172265152</v>
+        <v>996.1926270712764</v>
       </c>
       <c r="N31" t="n">
-        <v>1421.322856341474</v>
+        <v>1507.750233989478</v>
       </c>
       <c r="O31" t="n">
-        <v>1522.880399639414</v>
+        <v>1987.010101590621</v>
       </c>
       <c r="P31" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q31" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R31" t="n">
-        <v>2112.95354426947</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="S31" t="n">
-        <v>1958.396405816823</v>
+        <v>1958.396405816824</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.396405816823</v>
+        <v>1718.876368028777</v>
       </c>
       <c r="U31" t="n">
-        <v>1678.260714465885</v>
+        <v>1438.740676677839</v>
       </c>
       <c r="V31" t="n">
-        <v>1396.549247073914</v>
+        <v>1429.155032448419</v>
       </c>
       <c r="W31" t="n">
-        <v>1121.696843246427</v>
+        <v>1154.302628620932</v>
       </c>
       <c r="X31" t="n">
-        <v>879.1329466922324</v>
+        <v>911.738732066737</v>
       </c>
       <c r="Y31" t="n">
-        <v>652.7901783819744</v>
+        <v>685.3959637564791</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1039.82043944159</v>
+        <v>892.5893510941535</v>
       </c>
       <c r="C32" t="n">
-        <v>745.8330217641202</v>
+        <v>465.6886211074535</v>
       </c>
       <c r="D32" t="n">
-        <v>745.8330217641202</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="E32" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="F32" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="G32" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H32" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I32" t="n">
-        <v>83.49041341423376</v>
+        <v>83.4904134142339</v>
       </c>
       <c r="J32" t="n">
-        <v>220.1314621299486</v>
+        <v>220.1314621299484</v>
       </c>
       <c r="K32" t="n">
-        <v>433.1659828319415</v>
+        <v>433.1659828319414</v>
       </c>
       <c r="L32" t="n">
         <v>703.4506798655941</v>
@@ -6712,40 +6712,40 @@
         <v>1009.34076718589</v>
       </c>
       <c r="N32" t="n">
-        <v>1320.930219778829</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O32" t="n">
-        <v>1612.988324273002</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P32" t="n">
-        <v>1856.646746816143</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q32" t="n">
-        <v>2031.796003420093</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R32" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S32" t="n">
-        <v>2060.842613404949</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T32" t="n">
-        <v>2060.842613404949</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="U32" t="n">
-        <v>1802.64712436045</v>
+        <v>1802.647124360451</v>
       </c>
       <c r="V32" t="n">
-        <v>1445.157709486699</v>
+        <v>1445.1577094867</v>
       </c>
       <c r="W32" t="n">
-        <v>1445.157709486699</v>
+        <v>1445.1577094867</v>
       </c>
       <c r="X32" t="n">
-        <v>1445.157709486699</v>
+        <v>1033.437710654448</v>
       </c>
       <c r="Y32" t="n">
-        <v>1039.82043944159</v>
+        <v>1033.437710654448</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G33" t="n">
-        <v>85.47467570704998</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H33" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I33" t="n">
-        <v>62.36450125466524</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J33" t="n">
-        <v>140.6890736543378</v>
+        <v>164.1463794987498</v>
       </c>
       <c r="K33" t="n">
-        <v>287.2584022575215</v>
+        <v>310.7157081019335</v>
       </c>
       <c r="L33" t="n">
-        <v>491.866365280809</v>
+        <v>515.3236711252209</v>
       </c>
       <c r="M33" t="n">
-        <v>733.7796984728376</v>
+        <v>757.2370043172496</v>
       </c>
       <c r="N33" t="n">
-        <v>984.4371625576792</v>
+        <v>1007.894468402091</v>
       </c>
       <c r="O33" t="n">
-        <v>1210.129055565044</v>
+        <v>1233.586361409456</v>
       </c>
       <c r="P33" t="n">
-        <v>1557.772992330267</v>
+        <v>1411.582379632096</v>
       </c>
       <c r="Q33" t="n">
         <v>1668.646747295068</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>223.1041718818614</v>
+        <v>923.6461793127633</v>
       </c>
       <c r="C34" t="n">
-        <v>223.1041718818614</v>
+        <v>751.6736161916792</v>
       </c>
       <c r="D34" t="n">
-        <v>59.78739900863212</v>
+        <v>588.3568433184499</v>
       </c>
       <c r="E34" t="n">
-        <v>59.78739900863212</v>
+        <v>588.3568433184499</v>
       </c>
       <c r="F34" t="n">
-        <v>59.78739900863212</v>
+        <v>416.4950690930103</v>
       </c>
       <c r="G34" t="n">
-        <v>59.78739900863212</v>
+        <v>251.1319804478079</v>
       </c>
       <c r="H34" t="n">
-        <v>59.78739900863212</v>
+        <v>115.2831272035355</v>
       </c>
       <c r="I34" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J34" t="n">
-        <v>83.90537476982985</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K34" t="n">
-        <v>330.1735692129931</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L34" t="n">
-        <v>815.1140005100026</v>
+        <v>649.876855749035</v>
       </c>
       <c r="M34" t="n">
-        <v>930.0958479619491</v>
+        <v>1174.52735936815</v>
       </c>
       <c r="N34" t="n">
-        <v>1043.62053203827</v>
+        <v>1686.084966286352</v>
       </c>
       <c r="O34" t="n">
-        <v>1522.880399639414</v>
+        <v>1987.010101590621</v>
       </c>
       <c r="P34" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q34" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R34" t="n">
-        <v>2112.95354426947</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="S34" t="n">
-        <v>1958.396405816823</v>
+        <v>1958.396405816824</v>
       </c>
       <c r="T34" t="n">
-        <v>1718.876368028776</v>
+        <v>1718.876368028777</v>
       </c>
       <c r="U34" t="n">
-        <v>1438.740676677838</v>
+        <v>1438.740676677839</v>
       </c>
       <c r="V34" t="n">
-        <v>1157.029209285867</v>
+        <v>1438.740676677839</v>
       </c>
       <c r="W34" t="n">
-        <v>882.1768054583799</v>
+        <v>1163.888272850352</v>
       </c>
       <c r="X34" t="n">
-        <v>639.612908904185</v>
+        <v>1163.888272850352</v>
       </c>
       <c r="Y34" t="n">
-        <v>413.2701405939271</v>
+        <v>1113.812148024829</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1145.495010648922</v>
+        <v>1147.326571644523</v>
       </c>
       <c r="C35" t="n">
-        <v>1145.495010648922</v>
+        <v>1147.326571644523</v>
       </c>
       <c r="D35" t="n">
-        <v>722.2023898339227</v>
+        <v>1147.326571644523</v>
       </c>
       <c r="E35" t="n">
-        <v>722.2023898339227</v>
+        <v>1147.326571644523</v>
       </c>
       <c r="F35" t="n">
         <v>722.2023898339227</v>
@@ -6931,58 +6931,58 @@
         <v>319.8560819119778</v>
       </c>
       <c r="H35" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I35" t="n">
-        <v>83.49041341423367</v>
+        <v>83.4904134142339</v>
       </c>
       <c r="J35" t="n">
-        <v>220.1314621299487</v>
+        <v>220.1314621299484</v>
       </c>
       <c r="K35" t="n">
-        <v>433.1659828319417</v>
+        <v>433.1659828319414</v>
       </c>
       <c r="L35" t="n">
-        <v>703.4506798655943</v>
+        <v>703.4506798655941</v>
       </c>
       <c r="M35" t="n">
         <v>1009.34076718589</v>
       </c>
       <c r="N35" t="n">
-        <v>1320.930219778829</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O35" t="n">
         <v>1612.988324273003</v>
       </c>
       <c r="P35" t="n">
-        <v>1856.646746816143</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q35" t="n">
-        <v>2031.796003420093</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R35" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S35" t="n">
-        <v>2119.800014622688</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T35" t="n">
-        <v>2119.800014622688</v>
+        <v>1848.640325223458</v>
       </c>
       <c r="U35" t="n">
-        <v>1914.704424354926</v>
+        <v>1590.444836178959</v>
       </c>
       <c r="V35" t="n">
-        <v>1557.215009481175</v>
+        <v>1232.955421305208</v>
       </c>
       <c r="W35" t="n">
-        <v>1557.215009481175</v>
+        <v>1147.326571644523</v>
       </c>
       <c r="X35" t="n">
-        <v>1145.495010648922</v>
+        <v>1147.326571644523</v>
       </c>
       <c r="Y35" t="n">
-        <v>1145.495010648922</v>
+        <v>1147.326571644523</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G36" t="n">
-        <v>85.47467570704998</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H36" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I36" t="n">
-        <v>62.36450125466524</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J36" t="n">
-        <v>415.7924924818268</v>
+        <v>164.1463794987498</v>
       </c>
       <c r="K36" t="n">
-        <v>562.3618210850105</v>
+        <v>310.7157081019335</v>
       </c>
       <c r="L36" t="n">
-        <v>766.969784108298</v>
+        <v>515.3236711252209</v>
       </c>
       <c r="M36" t="n">
-        <v>1008.883117300327</v>
+        <v>757.2370043172496</v>
       </c>
       <c r="N36" t="n">
-        <v>1259.540581385168</v>
+        <v>1007.894468402091</v>
       </c>
       <c r="O36" t="n">
-        <v>1485.232474392533</v>
+        <v>1233.586361409456</v>
       </c>
       <c r="P36" t="n">
-        <v>1663.228492615173</v>
+        <v>1411.582379632096</v>
       </c>
       <c r="Q36" t="n">
-        <v>1774.102247579974</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R36" t="n">
         <v>1815.547718957572</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>510.0863335860176</v>
+        <v>620.2252068887037</v>
       </c>
       <c r="C37" t="n">
-        <v>338.1137704649336</v>
+        <v>448.2526437676197</v>
       </c>
       <c r="D37" t="n">
-        <v>338.1137704649336</v>
+        <v>448.2526437676197</v>
       </c>
       <c r="E37" t="n">
-        <v>171.9055646177872</v>
+        <v>448.2526437676197</v>
       </c>
       <c r="F37" t="n">
-        <v>171.9055646177872</v>
+        <v>276.3908695421801</v>
       </c>
       <c r="G37" t="n">
-        <v>115.2831272035355</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="H37" t="n">
-        <v>115.2831272035355</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I37" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J37" t="n">
-        <v>161.8270914180507</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K37" t="n">
-        <v>490.1407502142685</v>
+        <v>330.173569212994</v>
       </c>
       <c r="L37" t="n">
-        <v>975.0811815112779</v>
+        <v>815.1140005100035</v>
       </c>
       <c r="M37" t="n">
-        <v>1090.063028963224</v>
+        <v>930.09584796195</v>
       </c>
       <c r="N37" t="n">
-        <v>1601.620635881426</v>
+        <v>1043.620532038271</v>
       </c>
       <c r="O37" t="n">
-        <v>1987.01010159062</v>
+        <v>1522.880399639414</v>
       </c>
       <c r="P37" t="n">
-        <v>2070.812554180405</v>
+        <v>1919.439056802506</v>
       </c>
       <c r="Q37" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R37" t="n">
-        <v>2119.800014622688</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="S37" t="n">
-        <v>1965.242876170042</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="T37" t="n">
-        <v>1725.722838381994</v>
+        <v>1873.433506481423</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.722838381994</v>
+        <v>1593.297815130486</v>
       </c>
       <c r="V37" t="n">
-        <v>1444.011370990023</v>
+        <v>1311.586347738514</v>
       </c>
       <c r="W37" t="n">
-        <v>1169.158967162536</v>
+        <v>1036.733943911027</v>
       </c>
       <c r="X37" t="n">
-        <v>926.5950706083412</v>
+        <v>1036.733943911027</v>
       </c>
       <c r="Y37" t="n">
-        <v>700.2523022980832</v>
+        <v>810.3911756007694</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>424.8440727733015</v>
+        <v>1382.798760068921</v>
       </c>
       <c r="C38" t="n">
-        <v>42.39600029245376</v>
+        <v>1382.798760068921</v>
       </c>
       <c r="D38" t="n">
-        <v>42.39600029245376</v>
+        <v>959.506139253921</v>
       </c>
       <c r="E38" t="n">
-        <v>42.39600029245376</v>
+        <v>533.5291994017786</v>
       </c>
       <c r="F38" t="n">
-        <v>42.39600029245376</v>
+        <v>108.4050175911788</v>
       </c>
       <c r="G38" t="n">
-        <v>42.39600029245376</v>
+        <v>108.4050175911788</v>
       </c>
       <c r="H38" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I38" t="n">
-        <v>83.49041341423379</v>
+        <v>83.4904134142339</v>
       </c>
       <c r="J38" t="n">
-        <v>220.1314621299487</v>
+        <v>220.1314621299489</v>
       </c>
       <c r="K38" t="n">
-        <v>433.1659828319416</v>
+        <v>433.1659828319418</v>
       </c>
       <c r="L38" t="n">
-        <v>703.4506798655942</v>
+        <v>703.4506798655946</v>
       </c>
       <c r="M38" t="n">
         <v>1009.34076718589</v>
       </c>
       <c r="N38" t="n">
-        <v>1320.930219778829</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O38" t="n">
-        <v>1612.988324273002</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P38" t="n">
-        <v>1856.646746816143</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q38" t="n">
-        <v>2031.796003420093</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R38" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S38" t="n">
-        <v>2060.842613404949</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T38" t="n">
-        <v>1848.640325223457</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="U38" t="n">
-        <v>1590.444836178958</v>
+        <v>1802.647124360451</v>
       </c>
       <c r="V38" t="n">
-        <v>1232.955421305207</v>
+        <v>1802.647124360451</v>
       </c>
       <c r="W38" t="n">
-        <v>836.5640716055543</v>
+        <v>1802.647124360451</v>
       </c>
       <c r="X38" t="n">
-        <v>424.8440727733015</v>
+        <v>1802.647124360451</v>
       </c>
       <c r="Y38" t="n">
-        <v>424.8440727733015</v>
+        <v>1802.647124360451</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G39" t="n">
-        <v>85.47467570704998</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H39" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I39" t="n">
-        <v>62.36450125466524</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J39" t="n">
-        <v>140.6890736543378</v>
+        <v>310.3369921969212</v>
       </c>
       <c r="K39" t="n">
-        <v>287.2584022575215</v>
+        <v>456.9063208001049</v>
       </c>
       <c r="L39" t="n">
-        <v>491.866365280809</v>
+        <v>661.5142838233924</v>
       </c>
       <c r="M39" t="n">
-        <v>733.7796984728376</v>
+        <v>903.427617015421</v>
       </c>
       <c r="N39" t="n">
-        <v>984.4371625576792</v>
+        <v>1154.085081100263</v>
       </c>
       <c r="O39" t="n">
-        <v>1485.232474392533</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P39" t="n">
-        <v>1663.228492615173</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.102247579974</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R39" t="n">
         <v>1815.547718957572</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>549.5471105122066</v>
+        <v>449.4469401921203</v>
       </c>
       <c r="C40" t="n">
-        <v>377.5745473911226</v>
+        <v>449.4469401921203</v>
       </c>
       <c r="D40" t="n">
-        <v>214.2577745178933</v>
+        <v>449.4469401921203</v>
       </c>
       <c r="E40" t="n">
-        <v>214.2577745178933</v>
+        <v>283.2387343449739</v>
       </c>
       <c r="F40" t="n">
-        <v>42.39600029245376</v>
+        <v>207.7590889376561</v>
       </c>
       <c r="G40" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H40" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I40" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J40" t="n">
-        <v>161.8270914180507</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K40" t="n">
-        <v>490.1407502142685</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L40" t="n">
-        <v>975.0811815112779</v>
+        <v>649.876855749035</v>
       </c>
       <c r="M40" t="n">
-        <v>1090.063028963224</v>
+        <v>1174.52735936815</v>
       </c>
       <c r="N40" t="n">
-        <v>1356.376736611578</v>
+        <v>1686.084966286352</v>
       </c>
       <c r="O40" t="n">
-        <v>1835.636604212721</v>
+        <v>1987.010101590621</v>
       </c>
       <c r="P40" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q40" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R40" t="n">
-        <v>2112.95354426947</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="S40" t="n">
-        <v>1958.396405816823</v>
+        <v>1958.396405816824</v>
       </c>
       <c r="T40" t="n">
-        <v>1765.183615308183</v>
+        <v>1718.876368028777</v>
       </c>
       <c r="U40" t="n">
-        <v>1765.183615308183</v>
+        <v>1438.740676677839</v>
       </c>
       <c r="V40" t="n">
-        <v>1483.472147916212</v>
+        <v>1157.029209285868</v>
       </c>
       <c r="W40" t="n">
-        <v>1208.619744088725</v>
+        <v>882.1768054583808</v>
       </c>
       <c r="X40" t="n">
-        <v>966.0558475345301</v>
+        <v>639.6129089041859</v>
       </c>
       <c r="Y40" t="n">
-        <v>739.7130792242722</v>
+        <v>639.6129089041859</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1320.397851941896</v>
+        <v>1243.785344527588</v>
       </c>
       <c r="C41" t="n">
-        <v>893.497121955196</v>
+        <v>1243.785344527588</v>
       </c>
       <c r="D41" t="n">
-        <v>893.497121955196</v>
+        <v>820.492723712588</v>
       </c>
       <c r="E41" t="n">
-        <v>467.5201821030536</v>
+        <v>394.5157838604456</v>
       </c>
       <c r="F41" t="n">
-        <v>42.39600029245377</v>
+        <v>394.5157838604456</v>
       </c>
       <c r="G41" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H41" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I41" t="n">
         <v>83.4904134142339</v>
@@ -7441,22 +7441,22 @@
         <v>2060.84261340495</v>
       </c>
       <c r="T41" t="n">
-        <v>1848.640325223458</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="U41" t="n">
-        <v>1848.640325223458</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="V41" t="n">
-        <v>1848.640325223458</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="W41" t="n">
-        <v>1848.640325223458</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="X41" t="n">
-        <v>1725.735121987006</v>
+        <v>1649.122614572697</v>
       </c>
       <c r="Y41" t="n">
-        <v>1320.397851941896</v>
+        <v>1243.785344527588</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G42" t="n">
-        <v>85.47467570705</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H42" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I42" t="n">
-        <v>62.36450125466525</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J42" t="n">
-        <v>140.6890736543379</v>
+        <v>310.3369921969212</v>
       </c>
       <c r="K42" t="n">
-        <v>287.2584022575217</v>
+        <v>456.9063208001049</v>
       </c>
       <c r="L42" t="n">
-        <v>491.8663652808091</v>
+        <v>661.5142838233924</v>
       </c>
       <c r="M42" t="n">
-        <v>733.7796984728377</v>
+        <v>903.427617015421</v>
       </c>
       <c r="N42" t="n">
-        <v>1258.430202091953</v>
+        <v>1154.085081100263</v>
       </c>
       <c r="O42" t="n">
-        <v>1484.122095099318</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P42" t="n">
-        <v>1662.118113321958</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q42" t="n">
-        <v>1772.991868286759</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R42" t="n">
         <v>1815.547718957572</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1089.854385159909</v>
+        <v>624.4805531952616</v>
       </c>
       <c r="C43" t="n">
-        <v>917.8818220388256</v>
+        <v>452.5079900741775</v>
       </c>
       <c r="D43" t="n">
-        <v>754.5650491655963</v>
+        <v>452.5079900741775</v>
       </c>
       <c r="E43" t="n">
-        <v>588.3568433184498</v>
+        <v>452.5079900741775</v>
       </c>
       <c r="F43" t="n">
-        <v>416.4950690930103</v>
+        <v>280.6462158487379</v>
       </c>
       <c r="G43" t="n">
-        <v>251.1319804478079</v>
+        <v>115.2831272035355</v>
       </c>
       <c r="H43" t="n">
         <v>115.2831272035355</v>
       </c>
       <c r="I43" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J43" t="n">
-        <v>83.90537476982986</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K43" t="n">
-        <v>164.9364244520255</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L43" t="n">
-        <v>649.876855749035</v>
+        <v>471.5421234521609</v>
       </c>
       <c r="M43" t="n">
-        <v>1174.52735936815</v>
+        <v>996.1926270712764</v>
       </c>
       <c r="N43" t="n">
-        <v>1288.052043444472</v>
+        <v>1507.750233989478</v>
       </c>
       <c r="O43" t="n">
-        <v>1767.311911045615</v>
+        <v>1987.010101590621</v>
       </c>
       <c r="P43" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q43" t="n">
         <v>2119.800014622689</v>
       </c>
       <c r="R43" t="n">
-        <v>2119.800014622689</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="S43" t="n">
-        <v>2119.800014622689</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="T43" t="n">
-        <v>1880.279976834641</v>
+        <v>1873.433506481423</v>
       </c>
       <c r="U43" t="n">
-        <v>1600.144285483704</v>
+        <v>1593.297815130486</v>
       </c>
       <c r="V43" t="n">
-        <v>1591.049557297654</v>
+        <v>1311.586347738514</v>
       </c>
       <c r="W43" t="n">
-        <v>1316.197153470167</v>
+        <v>1093.387218059714</v>
       </c>
       <c r="X43" t="n">
-        <v>1316.197153470167</v>
+        <v>850.8233215055195</v>
       </c>
       <c r="Y43" t="n">
-        <v>1089.854385159909</v>
+        <v>624.4805531952616</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1590.444836178958</v>
+        <v>1649.402237396698</v>
       </c>
       <c r="C44" t="n">
-        <v>1163.544106192259</v>
+        <v>1222.501507409998</v>
       </c>
       <c r="D44" t="n">
-        <v>1163.544106192259</v>
+        <v>893.497121955196</v>
       </c>
       <c r="E44" t="n">
-        <v>1147.326571644523</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="F44" t="n">
-        <v>722.2023898339227</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="G44" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H44" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I44" t="n">
-        <v>83.49041341423379</v>
+        <v>83.49041341423435</v>
       </c>
       <c r="J44" t="n">
-        <v>220.1314621299487</v>
+        <v>220.1314621299492</v>
       </c>
       <c r="K44" t="n">
-        <v>433.1659828319417</v>
+        <v>433.1659828319422</v>
       </c>
       <c r="L44" t="n">
-        <v>703.4506798655943</v>
+        <v>703.4506798655948</v>
       </c>
       <c r="M44" t="n">
-        <v>1009.34076718589</v>
+        <v>1009.340767185891</v>
       </c>
       <c r="N44" t="n">
         <v>1320.93021977883</v>
@@ -7675,25 +7675,25 @@
         <v>2119.800014622689</v>
       </c>
       <c r="S44" t="n">
-        <v>2060.84261340495</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="T44" t="n">
-        <v>1848.640325223458</v>
+        <v>1907.597726441197</v>
       </c>
       <c r="U44" t="n">
-        <v>1590.444836178958</v>
+        <v>1649.402237396698</v>
       </c>
       <c r="V44" t="n">
-        <v>1590.444836178958</v>
+        <v>1649.402237396698</v>
       </c>
       <c r="W44" t="n">
-        <v>1590.444836178958</v>
+        <v>1649.402237396698</v>
       </c>
       <c r="X44" t="n">
-        <v>1590.444836178958</v>
+        <v>1649.402237396698</v>
       </c>
       <c r="Y44" t="n">
-        <v>1590.444836178958</v>
+        <v>1649.402237396698</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>902.4081515166739</v>
+        <v>598.1558558515571</v>
       </c>
       <c r="C45" t="n">
-        <v>784.9022480341787</v>
+        <v>480.6499523690619</v>
       </c>
       <c r="D45" t="n">
-        <v>681.0622895494637</v>
+        <v>376.8099938843469</v>
       </c>
       <c r="E45" t="n">
-        <v>576.3603558224009</v>
+        <v>272.1080601572841</v>
       </c>
       <c r="F45" t="n">
-        <v>482.7145255053051</v>
+        <v>178.4622298401883</v>
       </c>
       <c r="G45" t="n">
-        <v>389.7269713721669</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H45" t="n">
-        <v>346.6482959575707</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I45" t="n">
-        <v>366.6167969197821</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J45" t="n">
-        <v>444.9413693194547</v>
+        <v>310.3369921969212</v>
       </c>
       <c r="K45" t="n">
-        <v>591.5106979226384</v>
+        <v>456.9063208001049</v>
       </c>
       <c r="L45" t="n">
-        <v>1071.222079773415</v>
+        <v>661.5142838233924</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.135412965443</v>
+        <v>903.427617015421</v>
       </c>
       <c r="N45" t="n">
-        <v>1563.792877050285</v>
+        <v>1154.085081100263</v>
       </c>
       <c r="O45" t="n">
-        <v>1789.48477005765</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P45" t="n">
-        <v>1967.48078828029</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q45" t="n">
-        <v>2078.354543245091</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R45" t="n">
-        <v>2119.800014622689</v>
+        <v>1815.547718957572</v>
       </c>
       <c r="S45" t="n">
-        <v>2058.280292379585</v>
+        <v>1754.027996714468</v>
       </c>
       <c r="T45" t="n">
-        <v>1920.697962026684</v>
+        <v>1616.445666361567</v>
       </c>
       <c r="U45" t="n">
-        <v>1735.999911844298</v>
+        <v>1431.747616179181</v>
       </c>
       <c r="V45" t="n">
-        <v>1531.026772983564</v>
+        <v>1226.774477318447</v>
       </c>
       <c r="W45" t="n">
-        <v>1334.505395816781</v>
+        <v>1030.253100151665</v>
       </c>
       <c r="X45" t="n">
-        <v>1171.028049583444</v>
+        <v>866.7757539183275</v>
       </c>
       <c r="Y45" t="n">
-        <v>1031.335160936737</v>
+        <v>727.0828652716199</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>754.5650491655963</v>
+        <v>881.1184050045555</v>
       </c>
       <c r="C46" t="n">
-        <v>754.5650491655963</v>
+        <v>709.1458418834715</v>
       </c>
       <c r="D46" t="n">
-        <v>754.5650491655963</v>
+        <v>545.8290690102422</v>
       </c>
       <c r="E46" t="n">
-        <v>588.3568433184498</v>
+        <v>379.6208631630957</v>
       </c>
       <c r="F46" t="n">
-        <v>416.4950690930103</v>
+        <v>207.7590889376561</v>
       </c>
       <c r="G46" t="n">
-        <v>251.1319804478079</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H46" t="n">
-        <v>115.2831272035355</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I46" t="n">
-        <v>42.39600029245377</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J46" t="n">
-        <v>83.90537476982986</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K46" t="n">
-        <v>330.1735692129935</v>
+        <v>164.9364244520256</v>
       </c>
       <c r="L46" t="n">
-        <v>815.1140005100031</v>
+        <v>649.876855749035</v>
       </c>
       <c r="M46" t="n">
-        <v>930.0958479619495</v>
+        <v>1174.52735936815</v>
       </c>
       <c r="N46" t="n">
-        <v>1043.620532038271</v>
+        <v>1288.052043444472</v>
       </c>
       <c r="O46" t="n">
-        <v>1522.880399639414</v>
+        <v>1767.311911045615</v>
       </c>
       <c r="P46" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q46" t="n">
         <v>2119.800014622689</v>
       </c>
       <c r="R46" t="n">
-        <v>2112.95354426947</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="S46" t="n">
-        <v>1958.396405816824</v>
+        <v>2054.563480196608</v>
       </c>
       <c r="T46" t="n">
-        <v>1718.876368028776</v>
+        <v>1815.043442408561</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.471688695312</v>
+        <v>1815.043442408561</v>
       </c>
       <c r="V46" t="n">
-        <v>1255.760221303341</v>
+        <v>1815.043442408561</v>
       </c>
       <c r="W46" t="n">
-        <v>980.9078174758542</v>
+        <v>1540.191038581074</v>
       </c>
       <c r="X46" t="n">
-        <v>980.9078174758542</v>
+        <v>1297.627142026879</v>
       </c>
       <c r="Y46" t="n">
-        <v>754.5650491655963</v>
+        <v>1071.284373716621</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>14.10849161526705</v>
       </c>
       <c r="M2" t="n">
-        <v>10.50014909015128</v>
+        <v>10.50014909015127</v>
       </c>
       <c r="N2" t="n">
         <v>9.912735448118685</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>13.34699725816537</v>
+        <v>13.34699725816536</v>
       </c>
       <c r="J3" t="n">
         <v>12.85802961440214</v>
       </c>
       <c r="K3" t="n">
-        <v>9.147977155514766</v>
+        <v>9.147977155514765</v>
       </c>
       <c r="L3" t="n">
         <v>4.697136804258392</v>
       </c>
       <c r="M3" t="n">
-        <v>2.30407338579462</v>
+        <v>2.304073385794617</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>3.647188605845983</v>
       </c>
       <c r="P3" t="n">
-        <v>6.100547230880082</v>
+        <v>6.10054723088008</v>
       </c>
       <c r="Q3" t="n">
         <v>12.27186175772305</v>
@@ -8455,13 +8455,13 @@
         <v>14.96006091008002</v>
       </c>
       <c r="K8" t="n">
-        <v>14.09296117214526</v>
+        <v>14.09296117214527</v>
       </c>
       <c r="L8" t="n">
         <v>11.42645714324615</v>
       </c>
       <c r="M8" t="n">
-        <v>7.515868967310212</v>
+        <v>7.515868967310215</v>
       </c>
       <c r="N8" t="n">
         <v>6.880166552921242</v>
@@ -8473,7 +8473,7 @@
         <v>13.07601436734049</v>
       </c>
       <c r="Q8" t="n">
-        <v>17.72668497534603</v>
+        <v>17.72668497534604</v>
       </c>
       <c r="R8" t="n">
         <v>24.33067662398352</v>
@@ -8534,7 +8534,7 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K9" t="n">
-        <v>7.679584047590229</v>
+        <v>7.679584047590231</v>
       </c>
       <c r="L9" t="n">
         <v>2.722701059689193</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.483625009529543</v>
+        <v>1.483625009529547</v>
       </c>
       <c r="P9" t="n">
         <v>4.364096701700124</v>
@@ -8625,7 +8625,7 @@
         <v>9.054267004656879</v>
       </c>
       <c r="O10" t="n">
-        <v>11.69730019489984</v>
+        <v>11.69730019489985</v>
       </c>
       <c r="P10" t="n">
         <v>13.13791998612571</v>
@@ -8768,19 +8768,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>277.8822412398878</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1.121595245671614</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>276.760645994216</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>133.2902850353175</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>413.806723401181</v>
+        <v>413.8067234011808</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>186.3185663898225</v>
       </c>
       <c r="P13" t="n">
         <v>315.9153581548562</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>147.6672855537086</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>171.3615338813973</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>54.58148034014465</v>
+        <v>200.0547083780716</v>
       </c>
       <c r="M16" t="n">
-        <v>413.8067234011809</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>254.1879929121991</v>
+        <v>277.8822412398878</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>380.1908016072373</v>
+        <v>200.0547083780716</v>
       </c>
       <c r="M19" t="n">
-        <v>413.8067234011808</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>37.73909208169617</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>147.6672855537086</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>276.7606459942158</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.121595245672353</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>200.0547083780716</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>67.66144401421154</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>66.33474632528439</v>
+        <v>200.0547083780716</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N25" t="n">
         <v>402.0534574160406</v>
@@ -9813,10 +9813,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>147.6672855537086</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>171.3615338813975</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10041,19 +10041,19 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>413.8067234011808</v>
+        <v>297.9460736243956</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>34.04552222026852</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>171.3615338813975</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>147.6672855537085</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>186.3185663898223</v>
+        <v>200.0547083780716</v>
       </c>
       <c r="M31" t="n">
-        <v>413.8067234011808</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>171.3615338813975</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>147.6672855537085</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>166.9062068292602</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>201.3814060669992</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>277.8822412398878</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>147.6672855537085</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>166.9062068292611</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10755,16 +10755,16 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>286.69891152652</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>147.6672855537086</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>277.8822412398879</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N40" t="n">
-        <v>154.3323470424569</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>201.3814060669992</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>147.6672855537086</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>276.7606459942159</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.121595245671926</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,22 +11223,22 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>200.0547083780716</v>
       </c>
       <c r="M43" t="n">
-        <v>413.8067234011809</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>69.01484158293582</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>147.6672855537086</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>277.8822412398878</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,13 +11457,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>166.9062068292606</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11472,10 +11472,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>221.9173641868749</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.142297892192675</v>
+        <v>0.142297892192687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.142297892192675</v>
+        <v>0.142297892192687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>172.9683310350676</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H11" t="n">
         <v>274.6854808033287</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.3678272055618</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>110.9665501982744</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>33.40463152269081</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>153.0115670681201</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>168.4047270557382</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>58.3678272055618</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>12.654159283296</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>165.8051990746688</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.2031044652773</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>69.90619563000978</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S16" t="n">
         <v>153.0115670681201</v>
       </c>
       <c r="T16" t="n">
-        <v>237.124837410167</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.3228448427254</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.36782720556181</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T17" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>186.5420488387939</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>56.23212479083469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>99.09916861688636</v>
+        <v>155.7881903983457</v>
       </c>
       <c r="G19" t="n">
         <v>163.7094577587503</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -23977,13 +23977,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>51.10580937845685</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3228448427254</v>
+        <v>286.7526166649593</v>
       </c>
       <c r="H20" t="n">
         <v>274.6854808033287</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.7094577587503</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.0115670681201</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>8.483337031423758</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>93.50213592237651</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24217,7 +24217,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>51.1058093784564</v>
+        <v>356.4693249126083</v>
       </c>
       <c r="G23" t="n">
         <v>398.3228448427254</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>92.55578888576356</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>153.0115670681201</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>2.049638306988953</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>318.3424501087369</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>11.48839769360296</v>
       </c>
       <c r="T26" t="n">
         <v>210.080265299677</v>
@@ -24502,16 +24502,16 @@
         <v>255.6135341540542</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24606,19 +24606,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.4903647118297</v>
+        <v>119.2987325970664</v>
       </c>
       <c r="I28" t="n">
         <v>72.15825564197092</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>147.3286390596584</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>264.9079774428466</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>53.29628719039664</v>
       </c>
       <c r="H29" t="n">
         <v>274.6854808033287</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.36782720556181</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.080265299677</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>62.33548659760488</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.7094577587503</v>
       </c>
       <c r="H31" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>72.15825564197092</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.124837410167</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>269.4045649309255</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>276.2100046839236</v>
       </c>
       <c r="C32" t="n">
-        <v>131.584179186138</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
@@ -24934,7 +24934,7 @@
         <v>398.3228448427254</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>54.94077091295435</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>174.5039770498876</v>
       </c>
     </row>
     <row r="35">
@@ -25159,13 +25159,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.36782720556181</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>52.56889978896916</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>307.6548750385776</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25320,19 +25320,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>107.6532447186412</v>
+        <v>66.54490191335096</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.778005649686243</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>153.0115670681201</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3343344374282</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>44.00813093079358</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>398.3228448427254</v>
       </c>
       <c r="H38" t="n">
-        <v>274.6854808033287</v>
+        <v>209.336553677591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>95.41830752994065</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>134.4903647118297</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>45.84417480661344</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3343344374282</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3228448427254</v>
+        <v>49.72425911041353</v>
       </c>
       <c r="H41" t="n">
         <v>274.6854808033287</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U41" t="n">
         <v>255.6135341540542</v>
@@ -25693,7 +25693,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>285.9266476398427</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.778005649686236</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>153.0115670681201</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>269.8905718138627</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>56.08674140720004</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>93.34535300659564</v>
       </c>
       <c r="E44" t="n">
-        <v>405.6618112513623</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>95.20540363598661</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.74370189729913</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>376679.1287377281</v>
+        <v>376679.1287377279</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>376679.1287377281</v>
+        <v>376679.128737728</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>376679.1287377279</v>
+        <v>376679.1287377281</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>376679.1287377279</v>
+        <v>376679.128737728</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>376679.1287377279</v>
+        <v>376679.1287377281</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>376679.1287377279</v>
+        <v>376679.1287377281</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>376679.1287377279</v>
+        <v>376679.128737728</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>376679.1287377278</v>
+        <v>376679.128737728</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>376679.1287377279</v>
+        <v>376679.1287377281</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>376679.1287377279</v>
+        <v>376679.1287377281</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>401638.5939822307</v>
       </c>
       <c r="C2" t="n">
-        <v>401638.5939822307</v>
+        <v>401638.5939822308</v>
       </c>
       <c r="D2" t="n">
         <v>401639.5409775308</v>
@@ -26328,25 +26328,25 @@
         <v>237523.2438527755</v>
       </c>
       <c r="G2" t="n">
-        <v>237523.2438527754</v>
+        <v>237523.2438527755</v>
       </c>
       <c r="H2" t="n">
         <v>237523.2438527755</v>
       </c>
       <c r="I2" t="n">
-        <v>237523.2438527755</v>
+        <v>237523.2438527754</v>
       </c>
       <c r="J2" t="n">
-        <v>237523.2438527755</v>
+        <v>237523.2438527753</v>
       </c>
       <c r="K2" t="n">
         <v>237523.2438527755</v>
       </c>
       <c r="L2" t="n">
+        <v>237523.2438527755</v>
+      </c>
+      <c r="M2" t="n">
         <v>237523.2438527754</v>
-      </c>
-      <c r="M2" t="n">
-        <v>237523.2438527755</v>
       </c>
       <c r="N2" t="n">
         <v>237523.2438527755</v>
@@ -26355,7 +26355,7 @@
         <v>237523.2438527755</v>
       </c>
       <c r="P2" t="n">
-        <v>237523.2438527754</v>
+        <v>237523.2438527755</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36763.52824278933</v>
+        <v>36763.52824278935</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3620.625146095259</v>
+        <v>3620.625146095253</v>
       </c>
       <c r="E3" t="n">
         <v>518446.2164292485</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132065.6607110082</v>
+        <v>132065.6607110081</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,16 +26429,16 @@
         <v>20834.26400213451</v>
       </c>
       <c r="F4" t="n">
+        <v>20834.26400213453</v>
+      </c>
+      <c r="G4" t="n">
         <v>20834.26400213452</v>
       </c>
-      <c r="G4" t="n">
-        <v>20834.26400213451</v>
-      </c>
       <c r="H4" t="n">
-        <v>20834.26400213451</v>
+        <v>20834.26400213453</v>
       </c>
       <c r="I4" t="n">
-        <v>20834.26400213451</v>
+        <v>20834.26400213452</v>
       </c>
       <c r="J4" t="n">
         <v>20834.26400213451</v>
@@ -26450,16 +26450,16 @@
         <v>20834.26400213452</v>
       </c>
       <c r="M4" t="n">
-        <v>20834.26400213451</v>
+        <v>20834.26400213452</v>
       </c>
       <c r="N4" t="n">
-        <v>20834.26400213451</v>
+        <v>20834.26400213453</v>
       </c>
       <c r="O4" t="n">
-        <v>20834.26400213451</v>
+        <v>20834.26400213453</v>
       </c>
       <c r="P4" t="n">
-        <v>20834.26400213452</v>
+        <v>20834.26400213453</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>34551.47122049312</v>
       </c>
       <c r="E5" t="n">
+        <v>42919.10753132479</v>
+      </c>
+      <c r="F5" t="n">
         <v>42919.10753132481</v>
       </c>
-      <c r="F5" t="n">
-        <v>42919.1075313248</v>
-      </c>
       <c r="G5" t="n">
-        <v>42919.10753132479</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="H5" t="n">
-        <v>42919.10753132479</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="I5" t="n">
-        <v>42919.10753132479</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="J5" t="n">
         <v>42919.10753132479</v>
       </c>
       <c r="K5" t="n">
-        <v>42919.10753132479</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="L5" t="n">
-        <v>42919.10753132479</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="M5" t="n">
-        <v>42919.10753132479</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="N5" t="n">
-        <v>42919.10753132479</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="O5" t="n">
-        <v>42919.1075313248</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="P5" t="n">
-        <v>42919.1075313248</v>
+        <v>42919.10753132481</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18308.15854340489</v>
+        <v>18286.47542331351</v>
       </c>
       <c r="C6" t="n">
-        <v>55071.68678619422</v>
+        <v>55050.00366610295</v>
       </c>
       <c r="D6" t="n">
-        <v>52492.81180644404</v>
+        <v>52471.13206847874</v>
       </c>
       <c r="E6" t="n">
-        <v>-344676.3441099324</v>
+        <v>-345284.153480486</v>
       </c>
       <c r="F6" t="n">
-        <v>173769.8723193162</v>
+        <v>173162.0629487624</v>
       </c>
       <c r="G6" t="n">
-        <v>173769.8723193161</v>
+        <v>173162.0629487624</v>
       </c>
       <c r="H6" t="n">
-        <v>173769.8723193162</v>
+        <v>173162.0629487625</v>
       </c>
       <c r="I6" t="n">
-        <v>173769.8723193162</v>
+        <v>173162.0629487624</v>
       </c>
       <c r="J6" t="n">
-        <v>173769.8723193161</v>
+        <v>173162.0629487623</v>
       </c>
       <c r="K6" t="n">
-        <v>173769.8723193161</v>
+        <v>173162.0629487625</v>
       </c>
       <c r="L6" t="n">
-        <v>173769.8723193161</v>
+        <v>173162.0629487624</v>
       </c>
       <c r="M6" t="n">
-        <v>41704.211608308</v>
+        <v>41096.40223775426</v>
       </c>
       <c r="N6" t="n">
-        <v>173769.8723193161</v>
+        <v>173162.0629487624</v>
       </c>
       <c r="O6" t="n">
-        <v>173769.8723193161</v>
+        <v>173162.0629487624</v>
       </c>
       <c r="P6" t="n">
-        <v>173769.8723193161</v>
+        <v>173162.0629487624</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>42.37941378408804</v>
       </c>
       <c r="E3" t="n">
-        <v>490.7407022504557</v>
+        <v>490.7407022504556</v>
       </c>
       <c r="F3" t="n">
         <v>490.7407022504557</v>
       </c>
       <c r="G3" t="n">
-        <v>490.7407022504556</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="H3" t="n">
-        <v>490.7407022504556</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="I3" t="n">
-        <v>490.7407022504556</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="J3" t="n">
-        <v>490.7407022504556</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="K3" t="n">
-        <v>490.7407022504556</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="L3" t="n">
-        <v>490.7407022504556</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="M3" t="n">
-        <v>490.7407022504556</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="N3" t="n">
-        <v>490.7407022504556</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="O3" t="n">
         <v>490.7407022504557</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>529.950003655672</v>
+      </c>
+      <c r="F4" t="n">
         <v>529.9500036556723</v>
       </c>
-      <c r="F4" t="n">
-        <v>529.9500036556722</v>
-      </c>
       <c r="G4" t="n">
-        <v>529.950003655672</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="H4" t="n">
-        <v>529.9500036556719</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="I4" t="n">
-        <v>529.950003655672</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="J4" t="n">
         <v>529.950003655672</v>
       </c>
       <c r="K4" t="n">
-        <v>529.950003655672</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="L4" t="n">
-        <v>529.950003655672</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="M4" t="n">
-        <v>529.950003655672</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N4" t="n">
-        <v>529.950003655672</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="O4" t="n">
-        <v>529.9500036556722</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="P4" t="n">
-        <v>529.9500036556722</v>
+        <v>529.9500036556723</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.227657588613987</v>
+        <v>4.22765758861398</v>
       </c>
       <c r="E3" t="n">
-        <v>448.3612884663677</v>
+        <v>448.3612884663676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.9500036556723</v>
+        <v>529.9500036556722</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.9500036556723</v>
+        <v>529.9500036556722</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.9500036556723</v>
+        <v>529.9500036556722</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>1.570740394520195</v>
       </c>
       <c r="I2" t="n">
-        <v>5.912947058195031</v>
+        <v>5.912947058195032</v>
       </c>
       <c r="J2" t="n">
-        <v>13.01741755736931</v>
+        <v>13.01741755736932</v>
       </c>
       <c r="K2" t="n">
         <v>19.50973450110566</v>
       </c>
       <c r="L2" t="n">
-        <v>24.20355081735587</v>
+        <v>24.20355081735588</v>
       </c>
       <c r="M2" t="n">
         <v>26.93111380928054</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08206226804309515</v>
+        <v>0.08206226804309516</v>
       </c>
       <c r="H3" t="n">
         <v>0.7925487466267348</v>
@@ -31129,7 +31129,7 @@
         <v>2.825389491834636</v>
       </c>
       <c r="J3" t="n">
-        <v>7.753084718931197</v>
+        <v>7.753084718931198</v>
       </c>
       <c r="K3" t="n">
         <v>13.25125667781857</v>
@@ -31156,13 +31156,13 @@
         <v>5.095059063237085</v>
       </c>
       <c r="S3" t="n">
-        <v>1.524270636677665</v>
+        <v>1.524270636677666</v>
       </c>
       <c r="T3" t="n">
         <v>0.3307685277701948</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00539883342388784</v>
+        <v>0.005398833423887841</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>0.06879824887708436</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6116789763798959</v>
+        <v>0.611678976379896</v>
       </c>
       <c r="I4" t="n">
         <v>2.068950975321774</v>
       </c>
       <c r="J4" t="n">
-        <v>4.864036195609864</v>
+        <v>4.864036195609865</v>
       </c>
       <c r="K4" t="n">
-        <v>7.99310564226489</v>
+        <v>7.993105642264891</v>
       </c>
       <c r="L4" t="n">
         <v>10.22842329214398</v>
@@ -31223,22 +31223,22 @@
         <v>10.52800839407238</v>
       </c>
       <c r="O4" t="n">
-        <v>9.7243197594628</v>
+        <v>9.724319759462801</v>
       </c>
       <c r="P4" t="n">
-        <v>8.320835482370272</v>
+        <v>8.320835482370274</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.760915185516582</v>
+        <v>5.760915185516583</v>
       </c>
       <c r="R4" t="n">
-        <v>3.093419444964174</v>
+        <v>3.093419444964175</v>
       </c>
       <c r="S4" t="n">
         <v>1.198965846339733</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2939561542929967</v>
+        <v>0.2939561542929968</v>
       </c>
       <c r="U4" t="n">
         <v>0.003752631756931878</v>
@@ -31521,13 +31521,13 @@
         <v>1.744796669010217</v>
       </c>
       <c r="I8" t="n">
-        <v>6.568170250898712</v>
+        <v>6.568170250898711</v>
       </c>
       <c r="J8" t="n">
         <v>14.4598985755065</v>
       </c>
       <c r="K8" t="n">
-        <v>21.67163962266408</v>
+        <v>21.67163962266407</v>
       </c>
       <c r="L8" t="n">
         <v>26.88558528937678</v>
@@ -31551,7 +31551,7 @@
         <v>10.70197327081295</v>
       </c>
       <c r="S8" t="n">
-        <v>3.882295041627765</v>
+        <v>3.882295041627764</v>
       </c>
       <c r="T8" t="n">
         <v>0.7457924978486244</v>
@@ -31597,7 +31597,7 @@
         <v>0.09115572021483087</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8803723504958668</v>
+        <v>0.8803723504958667</v>
       </c>
       <c r="I9" t="n">
         <v>3.138475454765011</v>
@@ -31618,7 +31618,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>21.68826471269268</v>
+        <v>21.68826471269267</v>
       </c>
       <c r="P9" t="n">
         <v>17.40674450312854</v>
@@ -31633,10 +31633,10 @@
         <v>1.693177522411441</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.3674215213922348</v>
       </c>
       <c r="U9" t="n">
-        <v>0.005997086856238876</v>
+        <v>0.005997086856238875</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31700,13 +31700,13 @@
         <v>10.80188730352461</v>
       </c>
       <c r="P10" t="n">
-        <v>9.242880671860771</v>
+        <v>9.242880671860769</v>
       </c>
       <c r="Q10" t="n">
         <v>6.399291481397293</v>
       </c>
       <c r="R10" t="n">
-        <v>3.436206238952449</v>
+        <v>3.436206238952448</v>
       </c>
       <c r="S10" t="n">
         <v>1.331825184001586</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.972826943720424</v>
+        <v>1.972826943720423</v>
       </c>
       <c r="H11" t="n">
         <v>20.20421393737679</v>
       </c>
       <c r="I11" t="n">
-        <v>76.0574107477817</v>
+        <v>76.05741074778169</v>
       </c>
       <c r="J11" t="n">
         <v>167.4412208145914</v>
@@ -31770,28 +31770,28 @@
         <v>311.326887921161</v>
       </c>
       <c r="M11" t="n">
-        <v>346.4111490815491</v>
+        <v>346.411149081549</v>
       </c>
       <c r="N11" t="n">
-        <v>352.0164436353948</v>
+        <v>352.0164436353947</v>
       </c>
       <c r="O11" t="n">
-        <v>332.3991457137748</v>
+        <v>332.3991457137747</v>
       </c>
       <c r="P11" t="n">
-        <v>283.6949805406768</v>
+        <v>283.6949805406767</v>
       </c>
       <c r="Q11" t="n">
         <v>213.043115618689</v>
       </c>
       <c r="R11" t="n">
-        <v>123.9255905034782</v>
+        <v>123.9255905034781</v>
       </c>
       <c r="S11" t="n">
-        <v>44.9557939800292</v>
+        <v>44.95579398002918</v>
       </c>
       <c r="T11" t="n">
-        <v>8.63604994613616</v>
+        <v>8.636049946136156</v>
       </c>
       <c r="U11" t="n">
         <v>0.1578261554976338</v>
@@ -31837,43 +31837,43 @@
         <v>10.19444364486324</v>
       </c>
       <c r="I12" t="n">
-        <v>36.34258974213282</v>
+        <v>36.3425897421328</v>
       </c>
       <c r="J12" t="n">
-        <v>99.72684402997236</v>
+        <v>99.72684402997233</v>
       </c>
       <c r="K12" t="n">
         <v>170.4490607052361</v>
       </c>
       <c r="L12" t="n">
-        <v>229.1897968387624</v>
+        <v>229.1897968387623</v>
       </c>
       <c r="M12" t="n">
-        <v>267.4536827264984</v>
+        <v>267.4536827264983</v>
       </c>
       <c r="N12" t="n">
-        <v>274.5323858749979</v>
+        <v>274.5323858749978</v>
       </c>
       <c r="O12" t="n">
-        <v>251.1434988205705</v>
+        <v>251.1434988205704</v>
       </c>
       <c r="P12" t="n">
-        <v>201.564799005475</v>
+        <v>201.5647990054749</v>
       </c>
       <c r="Q12" t="n">
         <v>134.7407301726157</v>
       </c>
       <c r="R12" t="n">
-        <v>65.53703189676844</v>
+        <v>65.53703189676843</v>
       </c>
       <c r="S12" t="n">
         <v>19.60647994368565</v>
       </c>
       <c r="T12" t="n">
-        <v>4.25462929592612</v>
+        <v>4.254629295926119</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06944443899770603</v>
+        <v>0.06944443899770601</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8849422499598382</v>
+        <v>0.8849422499598379</v>
       </c>
       <c r="H13" t="n">
-        <v>7.867941095097476</v>
+        <v>7.867941095097474</v>
       </c>
       <c r="I13" t="n">
-        <v>26.61262693515587</v>
+        <v>26.61262693515586</v>
       </c>
       <c r="J13" t="n">
-        <v>62.56541707216055</v>
+        <v>62.56541707216054</v>
       </c>
       <c r="K13" t="n">
         <v>102.814199586243</v>
       </c>
       <c r="L13" t="n">
-        <v>131.5667777803927</v>
+        <v>131.5667777803926</v>
       </c>
       <c r="M13" t="n">
-        <v>138.7187201459772</v>
+        <v>138.7187201459771</v>
       </c>
       <c r="N13" t="n">
         <v>135.4202990324906</v>
@@ -31940,19 +31940,19 @@
         <v>107.0297426678698</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.10184603981881</v>
+        <v>74.1018460398188</v>
       </c>
       <c r="R13" t="n">
-        <v>39.79022153001235</v>
+        <v>39.79022153001234</v>
       </c>
       <c r="S13" t="n">
-        <v>15.42212993793645</v>
+        <v>15.42212993793644</v>
       </c>
       <c r="T13" t="n">
-        <v>3.781116886192035</v>
+        <v>3.781116886192034</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04826957727053668</v>
+        <v>0.04826957727053667</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>20.20421393737679</v>
       </c>
       <c r="I17" t="n">
-        <v>76.05741074778169</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J17" t="n">
         <v>167.4412208145914</v>
@@ -32247,7 +32247,7 @@
         <v>346.411149081549</v>
       </c>
       <c r="N17" t="n">
-        <v>352.0164436353947</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O17" t="n">
         <v>332.3991457137747</v>
@@ -32262,10 +32262,10 @@
         <v>123.9255905034781</v>
       </c>
       <c r="S17" t="n">
-        <v>44.95579398002918</v>
+        <v>44.95579398002919</v>
       </c>
       <c r="T17" t="n">
-        <v>8.636049946136156</v>
+        <v>8.636049946136158</v>
       </c>
       <c r="U17" t="n">
         <v>0.1578261554976338</v>
@@ -32311,25 +32311,25 @@
         <v>10.19444364486324</v>
       </c>
       <c r="I18" t="n">
-        <v>36.3425897421328</v>
+        <v>36.34258974213281</v>
       </c>
       <c r="J18" t="n">
-        <v>99.72684402997233</v>
+        <v>99.72684402997234</v>
       </c>
       <c r="K18" t="n">
         <v>170.4490607052361</v>
       </c>
       <c r="L18" t="n">
-        <v>229.1897968387623</v>
+        <v>229.1897968387624</v>
       </c>
       <c r="M18" t="n">
         <v>267.4536827264983</v>
       </c>
       <c r="N18" t="n">
-        <v>274.5323858749978</v>
+        <v>274.5323858749979</v>
       </c>
       <c r="O18" t="n">
-        <v>251.1434988205704</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P18" t="n">
         <v>201.5647990054749</v>
@@ -32347,7 +32347,7 @@
         <v>4.254629295926119</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06944443899770601</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8849422499598379</v>
+        <v>0.8849422499598381</v>
       </c>
       <c r="H19" t="n">
-        <v>7.867941095097474</v>
+        <v>7.867941095097475</v>
       </c>
       <c r="I19" t="n">
         <v>26.61262693515586</v>
@@ -32399,7 +32399,7 @@
         <v>102.814199586243</v>
       </c>
       <c r="L19" t="n">
-        <v>131.5667777803926</v>
+        <v>131.5667777803927</v>
       </c>
       <c r="M19" t="n">
         <v>138.7187201459771</v>
@@ -32414,10 +32414,10 @@
         <v>107.0297426678698</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.1018460398188</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R19" t="n">
-        <v>39.79022153001234</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S19" t="n">
         <v>15.42212993793644</v>
@@ -32426,7 +32426,7 @@
         <v>3.781116886192034</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04826957727053667</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>20.20421393737679</v>
       </c>
       <c r="I20" t="n">
-        <v>76.05741074778169</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J20" t="n">
         <v>167.4412208145914</v>
@@ -32484,7 +32484,7 @@
         <v>346.411149081549</v>
       </c>
       <c r="N20" t="n">
-        <v>352.0164436353947</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O20" t="n">
         <v>332.3991457137747</v>
@@ -32499,10 +32499,10 @@
         <v>123.9255905034781</v>
       </c>
       <c r="S20" t="n">
-        <v>44.95579398002918</v>
+        <v>44.95579398002919</v>
       </c>
       <c r="T20" t="n">
-        <v>8.636049946136156</v>
+        <v>8.636049946136158</v>
       </c>
       <c r="U20" t="n">
         <v>0.1578261554976338</v>
@@ -32548,25 +32548,25 @@
         <v>10.19444364486324</v>
       </c>
       <c r="I21" t="n">
-        <v>36.3425897421328</v>
+        <v>36.34258974213281</v>
       </c>
       <c r="J21" t="n">
-        <v>99.72684402997233</v>
+        <v>99.72684402997234</v>
       </c>
       <c r="K21" t="n">
         <v>170.4490607052361</v>
       </c>
       <c r="L21" t="n">
-        <v>229.1897968387623</v>
+        <v>229.1897968387624</v>
       </c>
       <c r="M21" t="n">
         <v>267.4536827264983</v>
       </c>
       <c r="N21" t="n">
-        <v>274.5323858749978</v>
+        <v>274.5323858749979</v>
       </c>
       <c r="O21" t="n">
-        <v>251.1434988205704</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P21" t="n">
         <v>201.5647990054749</v>
@@ -32584,7 +32584,7 @@
         <v>4.254629295926119</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06944443899770601</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8849422499598379</v>
+        <v>0.8849422499598381</v>
       </c>
       <c r="H22" t="n">
-        <v>7.867941095097474</v>
+        <v>7.867941095097475</v>
       </c>
       <c r="I22" t="n">
         <v>26.61262693515586</v>
@@ -32636,7 +32636,7 @@
         <v>102.814199586243</v>
       </c>
       <c r="L22" t="n">
-        <v>131.5667777803926</v>
+        <v>131.5667777803927</v>
       </c>
       <c r="M22" t="n">
         <v>138.7187201459771</v>
@@ -32651,10 +32651,10 @@
         <v>107.0297426678698</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.1018460398188</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R22" t="n">
-        <v>39.79022153001234</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S22" t="n">
         <v>15.42212993793644</v>
@@ -32663,7 +32663,7 @@
         <v>3.781116886192034</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04826957727053667</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>20.20421393737679</v>
       </c>
       <c r="I23" t="n">
-        <v>76.05741074778169</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J23" t="n">
         <v>167.4412208145914</v>
@@ -32721,7 +32721,7 @@
         <v>346.411149081549</v>
       </c>
       <c r="N23" t="n">
-        <v>352.0164436353947</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O23" t="n">
         <v>332.3991457137747</v>
@@ -32736,10 +32736,10 @@
         <v>123.9255905034781</v>
       </c>
       <c r="S23" t="n">
-        <v>44.95579398002918</v>
+        <v>44.95579398002919</v>
       </c>
       <c r="T23" t="n">
-        <v>8.636049946136156</v>
+        <v>8.636049946136158</v>
       </c>
       <c r="U23" t="n">
         <v>0.1578261554976338</v>
@@ -32785,25 +32785,25 @@
         <v>10.19444364486324</v>
       </c>
       <c r="I24" t="n">
-        <v>36.3425897421328</v>
+        <v>36.34258974213281</v>
       </c>
       <c r="J24" t="n">
-        <v>99.72684402997233</v>
+        <v>99.72684402997234</v>
       </c>
       <c r="K24" t="n">
         <v>170.4490607052361</v>
       </c>
       <c r="L24" t="n">
-        <v>229.1897968387623</v>
+        <v>229.1897968387624</v>
       </c>
       <c r="M24" t="n">
         <v>267.4536827264983</v>
       </c>
       <c r="N24" t="n">
-        <v>274.5323858749978</v>
+        <v>274.5323858749979</v>
       </c>
       <c r="O24" t="n">
-        <v>251.1434988205704</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P24" t="n">
         <v>201.5647990054749</v>
@@ -32821,7 +32821,7 @@
         <v>4.254629295926119</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06944443899770601</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8849422499598379</v>
+        <v>0.8849422499598381</v>
       </c>
       <c r="H25" t="n">
-        <v>7.867941095097474</v>
+        <v>7.867941095097475</v>
       </c>
       <c r="I25" t="n">
         <v>26.61262693515586</v>
@@ -32873,7 +32873,7 @@
         <v>102.814199586243</v>
       </c>
       <c r="L25" t="n">
-        <v>131.5667777803926</v>
+        <v>131.5667777803927</v>
       </c>
       <c r="M25" t="n">
         <v>138.7187201459771</v>
@@ -32888,10 +32888,10 @@
         <v>107.0297426678698</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.1018460398188</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R25" t="n">
-        <v>39.79022153001234</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S25" t="n">
         <v>15.42212993793644</v>
@@ -32900,7 +32900,7 @@
         <v>3.781116886192034</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04826957727053667</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>20.20421393737679</v>
       </c>
       <c r="I26" t="n">
-        <v>76.05741074778169</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J26" t="n">
         <v>167.4412208145914</v>
@@ -32958,7 +32958,7 @@
         <v>346.411149081549</v>
       </c>
       <c r="N26" t="n">
-        <v>352.0164436353947</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O26" t="n">
         <v>332.3991457137747</v>
@@ -32973,10 +32973,10 @@
         <v>123.9255905034781</v>
       </c>
       <c r="S26" t="n">
-        <v>44.95579398002918</v>
+        <v>44.95579398002919</v>
       </c>
       <c r="T26" t="n">
-        <v>8.636049946136156</v>
+        <v>8.636049946136158</v>
       </c>
       <c r="U26" t="n">
         <v>0.1578261554976338</v>
@@ -33022,25 +33022,25 @@
         <v>10.19444364486324</v>
       </c>
       <c r="I27" t="n">
-        <v>36.3425897421328</v>
+        <v>36.34258974213281</v>
       </c>
       <c r="J27" t="n">
-        <v>99.72684402997233</v>
+        <v>99.72684402997234</v>
       </c>
       <c r="K27" t="n">
         <v>170.4490607052361</v>
       </c>
       <c r="L27" t="n">
-        <v>229.1897968387623</v>
+        <v>229.1897968387624</v>
       </c>
       <c r="M27" t="n">
         <v>267.4536827264983</v>
       </c>
       <c r="N27" t="n">
-        <v>274.5323858749978</v>
+        <v>274.5323858749979</v>
       </c>
       <c r="O27" t="n">
-        <v>251.1434988205704</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P27" t="n">
         <v>201.5647990054749</v>
@@ -33058,7 +33058,7 @@
         <v>4.254629295926119</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06944443899770601</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8849422499598379</v>
+        <v>0.8849422499598381</v>
       </c>
       <c r="H28" t="n">
-        <v>7.867941095097474</v>
+        <v>7.867941095097475</v>
       </c>
       <c r="I28" t="n">
         <v>26.61262693515586</v>
@@ -33110,7 +33110,7 @@
         <v>102.814199586243</v>
       </c>
       <c r="L28" t="n">
-        <v>131.5667777803926</v>
+        <v>131.5667777803927</v>
       </c>
       <c r="M28" t="n">
         <v>138.7187201459771</v>
@@ -33125,10 +33125,10 @@
         <v>107.0297426678698</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.1018460398188</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R28" t="n">
-        <v>39.79022153001234</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S28" t="n">
         <v>15.42212993793644</v>
@@ -33137,7 +33137,7 @@
         <v>3.781116886192034</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04826957727053667</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>20.20421393737679</v>
       </c>
       <c r="I29" t="n">
-        <v>76.05741074778169</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J29" t="n">
         <v>167.4412208145914</v>
@@ -33195,7 +33195,7 @@
         <v>346.411149081549</v>
       </c>
       <c r="N29" t="n">
-        <v>352.0164436353947</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O29" t="n">
         <v>332.3991457137747</v>
@@ -33210,10 +33210,10 @@
         <v>123.9255905034781</v>
       </c>
       <c r="S29" t="n">
-        <v>44.95579398002918</v>
+        <v>44.95579398002919</v>
       </c>
       <c r="T29" t="n">
-        <v>8.636049946136156</v>
+        <v>8.636049946136158</v>
       </c>
       <c r="U29" t="n">
         <v>0.1578261554976338</v>
@@ -33259,25 +33259,25 @@
         <v>10.19444364486324</v>
       </c>
       <c r="I30" t="n">
-        <v>36.3425897421328</v>
+        <v>36.34258974213281</v>
       </c>
       <c r="J30" t="n">
-        <v>99.72684402997233</v>
+        <v>99.72684402997234</v>
       </c>
       <c r="K30" t="n">
         <v>170.4490607052361</v>
       </c>
       <c r="L30" t="n">
-        <v>229.1897968387623</v>
+        <v>229.1897968387624</v>
       </c>
       <c r="M30" t="n">
         <v>267.4536827264983</v>
       </c>
       <c r="N30" t="n">
-        <v>274.5323858749978</v>
+        <v>274.5323858749979</v>
       </c>
       <c r="O30" t="n">
-        <v>251.1434988205704</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P30" t="n">
         <v>201.5647990054749</v>
@@ -33295,7 +33295,7 @@
         <v>4.254629295926119</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06944443899770601</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8849422499598379</v>
+        <v>0.8849422499598381</v>
       </c>
       <c r="H31" t="n">
-        <v>7.867941095097474</v>
+        <v>7.867941095097475</v>
       </c>
       <c r="I31" t="n">
         <v>26.61262693515586</v>
@@ -33347,7 +33347,7 @@
         <v>102.814199586243</v>
       </c>
       <c r="L31" t="n">
-        <v>131.5667777803926</v>
+        <v>131.5667777803927</v>
       </c>
       <c r="M31" t="n">
         <v>138.7187201459771</v>
@@ -33362,10 +33362,10 @@
         <v>107.0297426678698</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.1018460398188</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R31" t="n">
-        <v>39.79022153001234</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S31" t="n">
         <v>15.42212993793644</v>
@@ -33374,7 +33374,7 @@
         <v>3.781116886192034</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04826957727053667</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>20.20421393737679</v>
       </c>
       <c r="I32" t="n">
-        <v>76.05741074778169</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J32" t="n">
         <v>167.4412208145914</v>
@@ -33432,7 +33432,7 @@
         <v>346.411149081549</v>
       </c>
       <c r="N32" t="n">
-        <v>352.0164436353947</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O32" t="n">
         <v>332.3991457137747</v>
@@ -33447,10 +33447,10 @@
         <v>123.9255905034781</v>
       </c>
       <c r="S32" t="n">
-        <v>44.95579398002918</v>
+        <v>44.95579398002919</v>
       </c>
       <c r="T32" t="n">
-        <v>8.636049946136156</v>
+        <v>8.636049946136158</v>
       </c>
       <c r="U32" t="n">
         <v>0.1578261554976338</v>
@@ -33496,25 +33496,25 @@
         <v>10.19444364486324</v>
       </c>
       <c r="I33" t="n">
-        <v>36.3425897421328</v>
+        <v>36.34258974213281</v>
       </c>
       <c r="J33" t="n">
-        <v>99.72684402997233</v>
+        <v>99.72684402997234</v>
       </c>
       <c r="K33" t="n">
         <v>170.4490607052361</v>
       </c>
       <c r="L33" t="n">
-        <v>229.1897968387623</v>
+        <v>229.1897968387624</v>
       </c>
       <c r="M33" t="n">
         <v>267.4536827264983</v>
       </c>
       <c r="N33" t="n">
-        <v>274.5323858749978</v>
+        <v>274.5323858749979</v>
       </c>
       <c r="O33" t="n">
-        <v>251.1434988205704</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P33" t="n">
         <v>201.5647990054749</v>
@@ -33532,7 +33532,7 @@
         <v>4.254629295926119</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06944443899770601</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8849422499598379</v>
+        <v>0.8849422499598381</v>
       </c>
       <c r="H34" t="n">
-        <v>7.867941095097474</v>
+        <v>7.867941095097475</v>
       </c>
       <c r="I34" t="n">
         <v>26.61262693515586</v>
@@ -33584,7 +33584,7 @@
         <v>102.814199586243</v>
       </c>
       <c r="L34" t="n">
-        <v>131.5667777803926</v>
+        <v>131.5667777803927</v>
       </c>
       <c r="M34" t="n">
         <v>138.7187201459771</v>
@@ -33599,10 +33599,10 @@
         <v>107.0297426678698</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.1018460398188</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R34" t="n">
-        <v>39.79022153001234</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S34" t="n">
         <v>15.42212993793644</v>
@@ -33611,7 +33611,7 @@
         <v>3.781116886192034</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04826957727053667</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>20.20421393737679</v>
       </c>
       <c r="I35" t="n">
-        <v>76.05741074778169</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J35" t="n">
         <v>167.4412208145914</v>
@@ -33669,7 +33669,7 @@
         <v>346.411149081549</v>
       </c>
       <c r="N35" t="n">
-        <v>352.0164436353947</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O35" t="n">
         <v>332.3991457137747</v>
@@ -33684,10 +33684,10 @@
         <v>123.9255905034781</v>
       </c>
       <c r="S35" t="n">
-        <v>44.95579398002918</v>
+        <v>44.95579398002919</v>
       </c>
       <c r="T35" t="n">
-        <v>8.636049946136156</v>
+        <v>8.636049946136158</v>
       </c>
       <c r="U35" t="n">
         <v>0.1578261554976338</v>
@@ -33733,25 +33733,25 @@
         <v>10.19444364486324</v>
       </c>
       <c r="I36" t="n">
-        <v>36.3425897421328</v>
+        <v>36.34258974213281</v>
       </c>
       <c r="J36" t="n">
-        <v>99.72684402997233</v>
+        <v>99.72684402997234</v>
       </c>
       <c r="K36" t="n">
         <v>170.4490607052361</v>
       </c>
       <c r="L36" t="n">
-        <v>229.1897968387623</v>
+        <v>229.1897968387624</v>
       </c>
       <c r="M36" t="n">
         <v>267.4536827264983</v>
       </c>
       <c r="N36" t="n">
-        <v>274.5323858749978</v>
+        <v>274.5323858749979</v>
       </c>
       <c r="O36" t="n">
-        <v>251.1434988205704</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P36" t="n">
         <v>201.5647990054749</v>
@@ -33769,7 +33769,7 @@
         <v>4.254629295926119</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06944443899770601</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8849422499598379</v>
+        <v>0.8849422499598381</v>
       </c>
       <c r="H37" t="n">
-        <v>7.867941095097474</v>
+        <v>7.867941095097475</v>
       </c>
       <c r="I37" t="n">
         <v>26.61262693515586</v>
@@ -33821,7 +33821,7 @@
         <v>102.814199586243</v>
       </c>
       <c r="L37" t="n">
-        <v>131.5667777803926</v>
+        <v>131.5667777803927</v>
       </c>
       <c r="M37" t="n">
         <v>138.7187201459771</v>
@@ -33836,10 +33836,10 @@
         <v>107.0297426678698</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.1018460398188</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R37" t="n">
-        <v>39.79022153001234</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S37" t="n">
         <v>15.42212993793644</v>
@@ -33848,7 +33848,7 @@
         <v>3.781116886192034</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04826957727053667</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>20.20421393737679</v>
       </c>
       <c r="I38" t="n">
-        <v>76.05741074778169</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J38" t="n">
         <v>167.4412208145914</v>
@@ -33906,7 +33906,7 @@
         <v>346.411149081549</v>
       </c>
       <c r="N38" t="n">
-        <v>352.0164436353947</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O38" t="n">
         <v>332.3991457137747</v>
@@ -33921,10 +33921,10 @@
         <v>123.9255905034781</v>
       </c>
       <c r="S38" t="n">
-        <v>44.95579398002918</v>
+        <v>44.95579398002919</v>
       </c>
       <c r="T38" t="n">
-        <v>8.636049946136156</v>
+        <v>8.636049946136158</v>
       </c>
       <c r="U38" t="n">
         <v>0.1578261554976338</v>
@@ -33970,25 +33970,25 @@
         <v>10.19444364486324</v>
       </c>
       <c r="I39" t="n">
-        <v>36.3425897421328</v>
+        <v>36.34258974213281</v>
       </c>
       <c r="J39" t="n">
-        <v>99.72684402997233</v>
+        <v>99.72684402997234</v>
       </c>
       <c r="K39" t="n">
         <v>170.4490607052361</v>
       </c>
       <c r="L39" t="n">
-        <v>229.1897968387623</v>
+        <v>229.1897968387624</v>
       </c>
       <c r="M39" t="n">
         <v>267.4536827264983</v>
       </c>
       <c r="N39" t="n">
-        <v>274.5323858749978</v>
+        <v>274.5323858749979</v>
       </c>
       <c r="O39" t="n">
-        <v>251.1434988205704</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P39" t="n">
         <v>201.5647990054749</v>
@@ -34006,7 +34006,7 @@
         <v>4.254629295926119</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06944443899770601</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8849422499598379</v>
+        <v>0.8849422499598381</v>
       </c>
       <c r="H40" t="n">
-        <v>7.867941095097474</v>
+        <v>7.867941095097475</v>
       </c>
       <c r="I40" t="n">
         <v>26.61262693515586</v>
@@ -34058,7 +34058,7 @@
         <v>102.814199586243</v>
       </c>
       <c r="L40" t="n">
-        <v>131.5667777803926</v>
+        <v>131.5667777803927</v>
       </c>
       <c r="M40" t="n">
         <v>138.7187201459771</v>
@@ -34073,10 +34073,10 @@
         <v>107.0297426678698</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.1018460398188</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R40" t="n">
-        <v>39.79022153001234</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S40" t="n">
         <v>15.42212993793644</v>
@@ -34085,7 +34085,7 @@
         <v>3.781116886192034</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04826957727053667</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34365,13 +34365,13 @@
         <v>20.20421393737679</v>
       </c>
       <c r="I44" t="n">
-        <v>76.0574107477817</v>
+        <v>76.05741074778226</v>
       </c>
       <c r="J44" t="n">
         <v>167.4412208145914</v>
       </c>
       <c r="K44" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L44" t="n">
         <v>311.326887921161</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.5095082038182</v>
+        <v>41.50950820381819</v>
       </c>
       <c r="J11" t="n">
         <v>138.0212613290049</v>
       </c>
       <c r="K11" t="n">
-        <v>215.1863845474677</v>
+        <v>215.1863845474676</v>
       </c>
       <c r="L11" t="n">
-        <v>273.0148454885381</v>
+        <v>273.014845488538</v>
       </c>
       <c r="M11" t="n">
         <v>308.9798861821172</v>
@@ -35424,16 +35424,16 @@
         <v>314.7368208009487</v>
       </c>
       <c r="O11" t="n">
-        <v>295.0081863577507</v>
+        <v>295.0081863577506</v>
       </c>
       <c r="P11" t="n">
-        <v>246.1196187304455</v>
+        <v>246.1196187304454</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.918441014091</v>
+        <v>176.9184410140909</v>
       </c>
       <c r="R11" t="n">
-        <v>88.8929406086817</v>
+        <v>88.89294060868167</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.17020299213281</v>
+        <v>20.1702029921328</v>
       </c>
       <c r="J12" t="n">
-        <v>79.11572969663902</v>
+        <v>356.9979709365268</v>
       </c>
       <c r="K12" t="n">
         <v>148.0498268719028</v>
       </c>
       <c r="L12" t="n">
-        <v>207.7963053702044</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M12" t="n">
-        <v>244.3569022141704</v>
+        <v>244.3569022141703</v>
       </c>
       <c r="N12" t="n">
-        <v>529.9500036556723</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O12" t="n">
-        <v>227.9716090983483</v>
+        <v>227.9716090983482</v>
       </c>
       <c r="P12" t="n">
-        <v>179.7939578006463</v>
+        <v>179.7939578006462</v>
       </c>
       <c r="Q12" t="n">
         <v>111.9936918836372</v>
       </c>
       <c r="R12" t="n">
-        <v>41.86411250262429</v>
+        <v>41.86411250262428</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.92866108825868</v>
+        <v>120.6374657834313</v>
       </c>
       <c r="K13" t="n">
-        <v>81.849545133531</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L13" t="n">
-        <v>242.938302920009</v>
+        <v>109.6480178846914</v>
       </c>
       <c r="M13" t="n">
-        <v>529.9500036556723</v>
+        <v>529.950003655672</v>
       </c>
       <c r="N13" t="n">
         <v>114.6713980568902</v>
       </c>
       <c r="O13" t="n">
-        <v>484.1008763647911</v>
+        <v>288.9019434584486</v>
       </c>
       <c r="P13" t="n">
         <v>400.5643001647395</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.17020299213281</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J15" t="n">
-        <v>79.11572969663901</v>
+        <v>226.7830152503475</v>
       </c>
       <c r="K15" t="n">
         <v>148.0498268719028</v>
@@ -35746,7 +35746,7 @@
         <v>179.7939578006463</v>
       </c>
       <c r="Q15" t="n">
-        <v>283.3552257650344</v>
+        <v>111.9936918836372</v>
       </c>
       <c r="R15" t="n">
         <v>148.384819861115</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>120.6374657834313</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K16" t="n">
         <v>81.84954513353098</v>
       </c>
       <c r="L16" t="n">
-        <v>164.2294982248361</v>
+        <v>309.702726262763</v>
       </c>
       <c r="M16" t="n">
-        <v>529.9500036556722</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N16" t="n">
-        <v>114.6713980568902</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O16" t="n">
         <v>484.1008763647911</v>
       </c>
       <c r="P16" t="n">
-        <v>400.5643001647395</v>
+        <v>84.64894200988334</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.50950820381819</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J17" t="n">
         <v>138.0212613290049</v>
@@ -35904,7 +35904,7 @@
         <v>246.1196187304454</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.9184410140909</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R17" t="n">
         <v>88.89294060868167</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>43.86445131982153</v>
+        <v>20.17020299213281</v>
       </c>
       <c r="J18" t="n">
-        <v>333.3037226088381</v>
+        <v>356.9979709365268</v>
       </c>
       <c r="K18" t="n">
         <v>148.0498268719028</v>
@@ -35980,7 +35980,7 @@
         <v>227.9716090983482</v>
       </c>
       <c r="P18" t="n">
-        <v>179.7939578006462</v>
+        <v>179.7939578006463</v>
       </c>
       <c r="Q18" t="n">
         <v>111.9936918836372</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.92866108825866</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K19" t="n">
-        <v>331.6299583800179</v>
+        <v>81.84954513353098</v>
       </c>
       <c r="L19" t="n">
-        <v>489.8388194919288</v>
+        <v>309.702726262763</v>
       </c>
       <c r="M19" t="n">
-        <v>529.950003655672</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N19" t="n">
-        <v>114.6713980568902</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O19" t="n">
-        <v>140.3224691503223</v>
+        <v>484.1008763647911</v>
       </c>
       <c r="P19" t="n">
-        <v>400.5643001647395</v>
+        <v>84.64894200988334</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.48228327503385</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.50950820381819</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J20" t="n">
         <v>138.0212613290049</v>
@@ -36141,7 +36141,7 @@
         <v>246.1196187304454</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.9184410140909</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R20" t="n">
         <v>88.89294060868167</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.1702029921328</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J21" t="n">
-        <v>79.11572969663899</v>
+        <v>226.7830152503475</v>
       </c>
       <c r="K21" t="n">
         <v>148.0498268719028</v>
@@ -36211,19 +36211,19 @@
         <v>244.3569022141703</v>
       </c>
       <c r="N21" t="n">
-        <v>529.9500036556719</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O21" t="n">
         <v>227.9716090983482</v>
       </c>
       <c r="P21" t="n">
-        <v>180.9155530463186</v>
+        <v>179.7939578006463</v>
       </c>
       <c r="Q21" t="n">
         <v>111.9936918836372</v>
       </c>
       <c r="R21" t="n">
-        <v>41.86411250262428</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>120.6374657834313</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K22" t="n">
-        <v>81.84954513353097</v>
+        <v>81.84954513353098</v>
       </c>
       <c r="L22" t="n">
-        <v>489.8388194919288</v>
+        <v>309.702726262763</v>
       </c>
       <c r="M22" t="n">
-        <v>116.1432802544913</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N22" t="n">
         <v>516.7248554729308</v>
       </c>
       <c r="O22" t="n">
-        <v>170.2448210828377</v>
+        <v>484.1008763647911</v>
       </c>
       <c r="P22" t="n">
-        <v>400.5643001647395</v>
+        <v>84.64894200988334</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.50950820381819</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J23" t="n">
         <v>138.0212613290049</v>
@@ -36378,7 +36378,7 @@
         <v>246.1196187304454</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.9184410140909</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R23" t="n">
         <v>88.89294060868167</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.1702029921328</v>
+        <v>20.17020299213281</v>
       </c>
       <c r="J24" t="n">
         <v>356.9979709365268</v>
@@ -36454,7 +36454,7 @@
         <v>227.9716090983482</v>
       </c>
       <c r="P24" t="n">
-        <v>179.7939578006462</v>
+        <v>179.7939578006463</v>
       </c>
       <c r="Q24" t="n">
         <v>111.9936918836372</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>120.6374657834313</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K25" t="n">
-        <v>81.84954513353097</v>
+        <v>81.84954513353098</v>
       </c>
       <c r="L25" t="n">
-        <v>175.9827642099758</v>
+        <v>309.702726262763</v>
       </c>
       <c r="M25" t="n">
-        <v>116.1432802544913</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N25" t="n">
         <v>516.7248554729308</v>
@@ -36533,10 +36533,10 @@
         <v>484.1008763647911</v>
       </c>
       <c r="P25" t="n">
-        <v>400.5643001647395</v>
+        <v>84.64894200988334</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.50950820381819</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J26" t="n">
         <v>138.0212613290049</v>
@@ -36615,7 +36615,7 @@
         <v>246.1196187304454</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.9184410140909</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R26" t="n">
         <v>88.89294060868167</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.1702029921328</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J27" t="n">
-        <v>79.11572969663899</v>
+        <v>226.7830152503476</v>
       </c>
       <c r="K27" t="n">
         <v>148.0498268719028</v>
@@ -36691,7 +36691,7 @@
         <v>227.9716090983482</v>
       </c>
       <c r="P27" t="n">
-        <v>351.1554916820438</v>
+        <v>179.7939578006463</v>
       </c>
       <c r="Q27" t="n">
         <v>111.9936918836372</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>120.6374657834313</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K28" t="n">
-        <v>81.84954513353097</v>
+        <v>81.84954513353098</v>
       </c>
       <c r="L28" t="n">
-        <v>109.6480178846914</v>
+        <v>109.6480178846915</v>
       </c>
       <c r="M28" t="n">
-        <v>529.950003655672</v>
+        <v>414.0893538788869</v>
       </c>
       <c r="N28" t="n">
         <v>516.7248554729308</v>
       </c>
       <c r="O28" t="n">
-        <v>136.6288992888947</v>
+        <v>484.1008763647911</v>
       </c>
       <c r="P28" t="n">
         <v>400.5643001647395</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.50950820381819</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J29" t="n">
         <v>138.0212613290049</v>
@@ -36852,7 +36852,7 @@
         <v>246.1196187304454</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.9184410140909</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R29" t="n">
         <v>88.89294060868167</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.1702029921328</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J30" t="n">
-        <v>79.11572969663899</v>
+        <v>79.11572969663901</v>
       </c>
       <c r="K30" t="n">
         <v>148.0498268719028</v>
@@ -36928,10 +36928,10 @@
         <v>227.9716090983482</v>
       </c>
       <c r="P30" t="n">
-        <v>351.1554916820438</v>
+        <v>179.7939578006463</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.9936918836372</v>
+        <v>259.6609774373457</v>
       </c>
       <c r="R30" t="n">
         <v>148.384819861115</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>120.6374657834313</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K31" t="n">
-        <v>331.6299583800179</v>
+        <v>81.84954513353098</v>
       </c>
       <c r="L31" t="n">
-        <v>295.9665842745137</v>
+        <v>309.702726262763</v>
       </c>
       <c r="M31" t="n">
-        <v>529.950003655672</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N31" t="n">
-        <v>114.6713980568902</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O31" t="n">
-        <v>102.5833770686261</v>
+        <v>484.1008763647911</v>
       </c>
       <c r="P31" t="n">
-        <v>400.5643001647395</v>
+        <v>84.64894200988334</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.50950820381819</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J32" t="n">
         <v>138.0212613290049</v>
@@ -37089,7 +37089,7 @@
         <v>246.1196187304454</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.9184410140909</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R32" t="n">
         <v>88.89294060868167</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.1702029921328</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J33" t="n">
-        <v>79.11572969663899</v>
+        <v>79.11572969663901</v>
       </c>
       <c r="K33" t="n">
         <v>148.0498268719028</v>
@@ -37165,10 +37165,10 @@
         <v>227.9716090983482</v>
       </c>
       <c r="P33" t="n">
-        <v>351.1554916820438</v>
+        <v>179.7939578006463</v>
       </c>
       <c r="Q33" t="n">
-        <v>111.9936918836372</v>
+        <v>259.6609774373457</v>
       </c>
       <c r="R33" t="n">
         <v>148.384819861115</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.92866108825866</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K34" t="n">
-        <v>248.7557519627912</v>
+        <v>81.84954513353098</v>
       </c>
       <c r="L34" t="n">
         <v>489.8388194919288</v>
       </c>
       <c r="M34" t="n">
-        <v>116.1432802544913</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N34" t="n">
-        <v>114.6713980568902</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O34" t="n">
-        <v>484.1008763647911</v>
+        <v>303.9647831356254</v>
       </c>
       <c r="P34" t="n">
-        <v>400.5643001647395</v>
+        <v>84.64894200988334</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.50950820381819</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J35" t="n">
         <v>138.0212613290049</v>
@@ -37326,7 +37326,7 @@
         <v>246.1196187304454</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.9184410140909</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R35" t="n">
         <v>88.89294060868167</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.1702029921328</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J36" t="n">
-        <v>356.9979709365268</v>
+        <v>79.11572969663901</v>
       </c>
       <c r="K36" t="n">
         <v>148.0498268719028</v>
@@ -37402,13 +37402,13 @@
         <v>227.9716090983482</v>
       </c>
       <c r="P36" t="n">
-        <v>179.7939578006462</v>
+        <v>179.7939578006463</v>
       </c>
       <c r="Q36" t="n">
-        <v>111.9936918836372</v>
+        <v>259.6609774373457</v>
       </c>
       <c r="R36" t="n">
-        <v>41.86411250262428</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.6374657834313</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K37" t="n">
-        <v>331.6299583800179</v>
+        <v>248.755751962792</v>
       </c>
       <c r="L37" t="n">
         <v>489.8388194919288</v>
@@ -37475,16 +37475,16 @@
         <v>116.1432802544913</v>
       </c>
       <c r="N37" t="n">
-        <v>516.7248554729308</v>
+        <v>114.6713980568902</v>
       </c>
       <c r="O37" t="n">
-        <v>389.2822885951461</v>
+        <v>484.1008763647911</v>
       </c>
       <c r="P37" t="n">
-        <v>84.64894200988333</v>
+        <v>400.5643001647395</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.48228327503385</v>
+        <v>202.3848058789723</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.50950820381819</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J38" t="n">
         <v>138.0212613290049</v>
@@ -37563,7 +37563,7 @@
         <v>246.1196187304454</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.9184410140909</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R38" t="n">
         <v>88.89294060868167</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.1702029921328</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J39" t="n">
-        <v>79.11572969663899</v>
+        <v>226.7830152503475</v>
       </c>
       <c r="K39" t="n">
         <v>148.0498268719028</v>
@@ -37636,16 +37636,16 @@
         <v>253.1893576614562</v>
       </c>
       <c r="O39" t="n">
-        <v>505.8538503382362</v>
+        <v>227.9716090983482</v>
       </c>
       <c r="P39" t="n">
-        <v>179.7939578006462</v>
+        <v>179.7939578006463</v>
       </c>
       <c r="Q39" t="n">
         <v>111.9936918836372</v>
       </c>
       <c r="R39" t="n">
-        <v>41.86411250262428</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>120.6374657834313</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K40" t="n">
-        <v>331.6299583800179</v>
+        <v>81.84954513353098</v>
       </c>
       <c r="L40" t="n">
         <v>489.8388194919288</v>
       </c>
       <c r="M40" t="n">
-        <v>116.1432802544913</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N40" t="n">
-        <v>269.003745099347</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O40" t="n">
-        <v>484.1008763647911</v>
+        <v>303.9647831356254</v>
       </c>
       <c r="P40" t="n">
-        <v>84.64894200988333</v>
+        <v>84.64894200988334</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.17020299213281</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J42" t="n">
-        <v>79.11572969663901</v>
+        <v>226.7830152503475</v>
       </c>
       <c r="K42" t="n">
         <v>148.0498268719028</v>
@@ -37870,7 +37870,7 @@
         <v>244.3569022141703</v>
       </c>
       <c r="N42" t="n">
-        <v>529.9500036556722</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O42" t="n">
         <v>227.9716090983482</v>
@@ -37882,7 +37882,7 @@
         <v>111.9936918836372</v>
       </c>
       <c r="R42" t="n">
-        <v>42.98570774829621</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37943,22 +37943,22 @@
         <v>81.84954513353098</v>
       </c>
       <c r="L43" t="n">
-        <v>489.8388194919288</v>
+        <v>309.702726262763</v>
       </c>
       <c r="M43" t="n">
-        <v>529.9500036556722</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N43" t="n">
-        <v>114.6713980568902</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O43" t="n">
         <v>484.1008763647911</v>
       </c>
       <c r="P43" t="n">
-        <v>153.6637835928192</v>
+        <v>84.64894200988334</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.5095082038182</v>
+        <v>41.50950820381875</v>
       </c>
       <c r="J44" t="n">
         <v>138.0212613290049</v>
       </c>
       <c r="K44" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474676</v>
       </c>
       <c r="L44" t="n">
         <v>273.014845488538</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.17020299213281</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J45" t="n">
-        <v>79.11572969663901</v>
+        <v>226.7830152503475</v>
       </c>
       <c r="K45" t="n">
         <v>148.0498268719028</v>
       </c>
       <c r="L45" t="n">
-        <v>484.5569513644206</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M45" t="n">
         <v>244.3569022141703</v>
@@ -38119,7 +38119,7 @@
         <v>111.9936918836372</v>
       </c>
       <c r="R45" t="n">
-        <v>41.86411250262428</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,13 +38177,13 @@
         <v>41.92866108825868</v>
       </c>
       <c r="K46" t="n">
-        <v>248.7557519627916</v>
+        <v>81.84954513353098</v>
       </c>
       <c r="L46" t="n">
         <v>489.8388194919288</v>
       </c>
       <c r="M46" t="n">
-        <v>116.1432802544913</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N46" t="n">
         <v>114.6713980568902</v>
@@ -38192,10 +38192,10 @@
         <v>484.1008763647911</v>
       </c>
       <c r="P46" t="n">
-        <v>400.5643001647395</v>
+        <v>306.5663061967582</v>
       </c>
       <c r="Q46" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
